--- a/employee_master.xlsx
+++ b/employee_master.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cheong-un Jeong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98DE432-D84F-4B34-8293-1CE5351060B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="28365" yWindow="2415" windowWidth="19620" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26.02.09" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="1934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="1937">
   <si>
     <t>신훈식</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6030,12 +6031,24 @@
   <si>
     <t>소속 기관</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정청운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최가윤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -6181,47 +6194,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
-    <cellStyle name="표준 3" xfId="2"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6498,14 +6505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D982"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A956" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A975" sqref="A975"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6517,10 +6524,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>1931</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1932</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6528,7 +6535,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>972</v>
       </c>
@@ -6539,7 +6546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>973</v>
       </c>
@@ -6550,7 +6557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>974</v>
       </c>
@@ -6561,7 +6568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>975</v>
       </c>
@@ -6572,7 +6579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>976</v>
       </c>
@@ -6583,7 +6590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>977</v>
       </c>
@@ -6594,7 +6601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>978</v>
       </c>
@@ -6605,7 +6612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>979</v>
       </c>
@@ -6616,7 +6623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>980</v>
       </c>
@@ -6627,7 +6634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>981</v>
       </c>
@@ -6638,7 +6645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>982</v>
       </c>
@@ -6649,7 +6656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>983</v>
       </c>
@@ -6660,7 +6667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>984</v>
       </c>
@@ -6671,7 +6678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>985</v>
       </c>
@@ -6682,7 +6689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>986</v>
       </c>
@@ -6693,7 +6700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>987</v>
       </c>
@@ -6704,7 +6711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>988</v>
       </c>
@@ -6715,7 +6722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>989</v>
       </c>
@@ -6726,7 +6733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>990</v>
       </c>
@@ -6737,7 +6744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>991</v>
       </c>
@@ -6748,7 +6755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>992</v>
       </c>
@@ -6759,7 +6766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>993</v>
       </c>
@@ -6770,7 +6777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>994</v>
       </c>
@@ -6781,7 +6788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>995</v>
       </c>
@@ -6792,7 +6799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>996</v>
       </c>
@@ -6803,7 +6810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>997</v>
       </c>
@@ -6814,7 +6821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>998</v>
       </c>
@@ -6825,7 +6832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>999</v>
       </c>
@@ -6836,7 +6843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>1000</v>
       </c>
@@ -6847,7 +6854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>1001</v>
       </c>
@@ -6858,7 +6865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>1002</v>
       </c>
@@ -6869,7 +6876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>1003</v>
       </c>
@@ -6880,7 +6887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>1004</v>
       </c>
@@ -6891,7 +6898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>1005</v>
       </c>
@@ -6902,7 +6909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>1006</v>
       </c>
@@ -6913,7 +6920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>1007</v>
       </c>
@@ -6924,7 +6931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>1008</v>
       </c>
@@ -6935,7 +6942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>1009</v>
       </c>
@@ -6946,7 +6953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>1010</v>
       </c>
@@ -6957,7 +6964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>1011</v>
       </c>
@@ -6968,7 +6975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>1012</v>
       </c>
@@ -6979,7 +6986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>1013</v>
       </c>
@@ -6990,7 +6997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>1014</v>
       </c>
@@ -7001,7 +7008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>1015</v>
       </c>
@@ -7012,7 +7019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>1016</v>
       </c>
@@ -7023,7 +7030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>1017</v>
       </c>
@@ -7034,7 +7041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>1018</v>
       </c>
@@ -7045,7 +7052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>1019</v>
       </c>
@@ -7056,7 +7063,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>1020</v>
       </c>
@@ -7067,7 +7074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>1021</v>
       </c>
@@ -7078,7 +7085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>1022</v>
       </c>
@@ -7089,7 +7096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>1023</v>
       </c>
@@ -7100,7 +7107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>1024</v>
       </c>
@@ -7111,7 +7118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>1025</v>
       </c>
@@ -7122,7 +7129,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>1026</v>
       </c>
@@ -7133,7 +7140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>1027</v>
       </c>
@@ -7144,7 +7151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>1028</v>
       </c>
@@ -7155,18 +7162,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>1030</v>
       </c>
@@ -7177,7 +7184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>1031</v>
       </c>
@@ -7188,7 +7195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>1032</v>
       </c>
@@ -7199,7 +7206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>1033</v>
       </c>
@@ -7210,7 +7217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>1034</v>
       </c>
@@ -7221,7 +7228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>1035</v>
       </c>
@@ -7232,7 +7239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>1036</v>
       </c>
@@ -7243,7 +7250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>1037</v>
       </c>
@@ -7254,7 +7261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>1038</v>
       </c>
@@ -7265,7 +7272,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>1039</v>
       </c>
@@ -7276,7 +7283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>1040</v>
       </c>
@@ -7287,7 +7294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>1041</v>
       </c>
@@ -7298,7 +7305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>1042</v>
       </c>
@@ -7309,7 +7316,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>1043</v>
       </c>
@@ -7320,7 +7327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>1044</v>
       </c>
@@ -7331,7 +7338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>1045</v>
       </c>
@@ -7342,7 +7349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>1046</v>
       </c>
@@ -7353,7 +7360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>1047</v>
       </c>
@@ -7364,7 +7371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>1048</v>
       </c>
@@ -7375,7 +7382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>1049</v>
       </c>
@@ -7386,7 +7393,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>1050</v>
       </c>
@@ -7397,7 +7404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>1051</v>
       </c>
@@ -7408,7 +7415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>1052</v>
       </c>
@@ -7419,7 +7426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>1053</v>
       </c>
@@ -7430,7 +7437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>1054</v>
       </c>
@@ -7441,7 +7448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>1055</v>
       </c>
@@ -7452,7 +7459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>1056</v>
       </c>
@@ -7463,7 +7470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>1057</v>
       </c>
@@ -7474,7 +7481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>1058</v>
       </c>
@@ -7485,7 +7492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>1059</v>
       </c>
@@ -7496,7 +7503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>1060</v>
       </c>
@@ -7507,7 +7514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>1061</v>
       </c>
@@ -7518,7 +7525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>1062</v>
       </c>
@@ -7529,7 +7536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>1063</v>
       </c>
@@ -7540,7 +7547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>1064</v>
       </c>
@@ -7551,7 +7558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>1065</v>
       </c>
@@ -7562,7 +7569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>1066</v>
       </c>
@@ -7573,7 +7580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>1067</v>
       </c>
@@ -7584,7 +7591,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>1068</v>
       </c>
@@ -7595,7 +7602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>1069</v>
       </c>
@@ -7606,7 +7613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>1070</v>
       </c>
@@ -7617,7 +7624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>1071</v>
       </c>
@@ -7628,7 +7635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>1072</v>
       </c>
@@ -7639,7 +7646,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>1073</v>
       </c>
@@ -7650,7 +7657,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>1074</v>
       </c>
@@ -7661,7 +7668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>1075</v>
       </c>
@@ -7672,7 +7679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>1076</v>
       </c>
@@ -7683,7 +7690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>1077</v>
       </c>
@@ -7694,7 +7701,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>1078</v>
       </c>
@@ -7705,7 +7712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>1079</v>
       </c>
@@ -7716,7 +7723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>1080</v>
       </c>
@@ -7727,7 +7734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>1081</v>
       </c>
@@ -7738,7 +7745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>1082</v>
       </c>
@@ -7749,7 +7756,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>1083</v>
       </c>
@@ -7760,7 +7767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>1084</v>
       </c>
@@ -7771,7 +7778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>1085</v>
       </c>
@@ -7782,7 +7789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>1086</v>
       </c>
@@ -7793,7 +7800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>1087</v>
       </c>
@@ -7804,7 +7811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>1088</v>
       </c>
@@ -7815,7 +7822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>1089</v>
       </c>
@@ -7826,7 +7833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>1090</v>
       </c>
@@ -7837,7 +7844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>1091</v>
       </c>
@@ -7848,7 +7855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>1092</v>
       </c>
@@ -7859,7 +7866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>1093</v>
       </c>
@@ -7870,7 +7877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>1094</v>
       </c>
@@ -7881,7 +7888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>1095</v>
       </c>
@@ -7892,7 +7899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>1096</v>
       </c>
@@ -7903,7 +7910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>1097</v>
       </c>
@@ -7914,7 +7921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>1098</v>
       </c>
@@ -7925,7 +7932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>1099</v>
       </c>
@@ -7936,7 +7943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>1100</v>
       </c>
@@ -7947,7 +7954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>1101</v>
       </c>
@@ -7958,7 +7965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>1102</v>
       </c>
@@ -7969,7 +7976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>1103</v>
       </c>
@@ -7980,7 +7987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>1104</v>
       </c>
@@ -7991,7 +7998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>1105</v>
       </c>
@@ -8002,7 +8009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>1106</v>
       </c>
@@ -8013,7 +8020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>1107</v>
       </c>
@@ -8024,7 +8031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>1108</v>
       </c>
@@ -8035,7 +8042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>1109</v>
       </c>
@@ -8046,7 +8053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>1110</v>
       </c>
@@ -8057,7 +8064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>1111</v>
       </c>
@@ -8068,7 +8075,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="142" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>1112</v>
       </c>
@@ -8079,7 +8086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>1113</v>
       </c>
@@ -8090,7 +8097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>1114</v>
       </c>
@@ -8101,7 +8108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>1115</v>
       </c>
@@ -8112,7 +8119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>1116</v>
       </c>
@@ -8123,7 +8130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>1117</v>
       </c>
@@ -8134,7 +8141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>1118</v>
       </c>
@@ -8145,7 +8152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>1119</v>
       </c>
@@ -8156,7 +8163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>1120</v>
       </c>
@@ -8167,7 +8174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>1121</v>
       </c>
@@ -8178,7 +8185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>1122</v>
       </c>
@@ -8189,7 +8196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>1123</v>
       </c>
@@ -8200,7 +8207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>1124</v>
       </c>
@@ -8211,7 +8218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>1125</v>
       </c>
@@ -8222,7 +8229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>1126</v>
       </c>
@@ -8233,7 +8240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>1127</v>
       </c>
@@ -8244,7 +8251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>1128</v>
       </c>
@@ -8255,7 +8262,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="159" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>1129</v>
       </c>
@@ -8266,7 +8273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>1130</v>
       </c>
@@ -8277,7 +8284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>1131</v>
       </c>
@@ -8288,7 +8295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>1132</v>
       </c>
@@ -8299,7 +8306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>1133</v>
       </c>
@@ -8310,7 +8317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>1134</v>
       </c>
@@ -8321,7 +8328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>1135</v>
       </c>
@@ -8332,7 +8339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>1136</v>
       </c>
@@ -8343,7 +8350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>1137</v>
       </c>
@@ -8354,7 +8361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>1138</v>
       </c>
@@ -8365,7 +8372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>1139</v>
       </c>
@@ -8376,7 +8383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>1140</v>
       </c>
@@ -8387,7 +8394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>1141</v>
       </c>
@@ -8398,7 +8405,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>1142</v>
       </c>
@@ -8409,7 +8416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>1143</v>
       </c>
@@ -8420,7 +8427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>1144</v>
       </c>
@@ -8431,7 +8438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>1145</v>
       </c>
@@ -8442,7 +8449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>1146</v>
       </c>
@@ -8453,7 +8460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>1147</v>
       </c>
@@ -8464,7 +8471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>1148</v>
       </c>
@@ -8475,7 +8482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>1149</v>
       </c>
@@ -8486,7 +8493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>1150</v>
       </c>
@@ -8497,7 +8504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>1151</v>
       </c>
@@ -8508,7 +8515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>1152</v>
       </c>
@@ -8519,7 +8526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>1153</v>
       </c>
@@ -8530,7 +8537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>1154</v>
       </c>
@@ -8541,7 +8548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>1155</v>
       </c>
@@ -8552,7 +8559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>1156</v>
       </c>
@@ -8563,7 +8570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>1157</v>
       </c>
@@ -8574,7 +8581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>1158</v>
       </c>
@@ -8585,7 +8592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>1159</v>
       </c>
@@ -8596,7 +8603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>1160</v>
       </c>
@@ -8607,7 +8614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>1161</v>
       </c>
@@ -8618,7 +8625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>1162</v>
       </c>
@@ -8629,7 +8636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>1163</v>
       </c>
@@ -8640,7 +8647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>1164</v>
       </c>
@@ -8651,7 +8658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>1165</v>
       </c>
@@ -8662,7 +8669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>1166</v>
       </c>
@@ -8673,7 +8680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>1167</v>
       </c>
@@ -8684,7 +8691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>1168</v>
       </c>
@@ -8695,7 +8702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>1169</v>
       </c>
@@ -8706,7 +8713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>1170</v>
       </c>
@@ -8717,7 +8724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>1171</v>
       </c>
@@ -8728,7 +8735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>1172</v>
       </c>
@@ -8739,7 +8746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>1173</v>
       </c>
@@ -8750,7 +8757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>1174</v>
       </c>
@@ -8761,7 +8768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>1175</v>
       </c>
@@ -8772,7 +8779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>1176</v>
       </c>
@@ -8783,7 +8790,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="207" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>1177</v>
       </c>
@@ -8794,7 +8801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>1178</v>
       </c>
@@ -8805,7 +8812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>1179</v>
       </c>
@@ -8816,7 +8823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>1180</v>
       </c>
@@ -8827,7 +8834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>1181</v>
       </c>
@@ -8838,7 +8845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>1182</v>
       </c>
@@ -8849,7 +8856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>1183</v>
       </c>
@@ -8860,7 +8867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>1184</v>
       </c>
@@ -8871,7 +8878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>1185</v>
       </c>
@@ -8882,7 +8889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>1186</v>
       </c>
@@ -8893,7 +8900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>1187</v>
       </c>
@@ -8904,7 +8911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>1188</v>
       </c>
@@ -8915,7 +8922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>1189</v>
       </c>
@@ -8926,7 +8933,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>1190</v>
       </c>
@@ -8937,7 +8944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>1191</v>
       </c>
@@ -8948,7 +8955,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>1192</v>
       </c>
@@ -8959,7 +8966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>1193</v>
       </c>
@@ -8970,7 +8977,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>1194</v>
       </c>
@@ -8981,7 +8988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>1195</v>
       </c>
@@ -8992,7 +8999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>1196</v>
       </c>
@@ -9003,7 +9010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>1197</v>
       </c>
@@ -9014,7 +9021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>1198</v>
       </c>
@@ -9025,7 +9032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>1199</v>
       </c>
@@ -9036,7 +9043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>1200</v>
       </c>
@@ -9047,7 +9054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>1201</v>
       </c>
@@ -9058,7 +9065,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="232" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>1202</v>
       </c>
@@ -9069,7 +9076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="233" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>1203</v>
       </c>
@@ -9080,7 +9087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>1204</v>
       </c>
@@ -9091,7 +9098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>1205</v>
       </c>
@@ -9102,7 +9109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>1206</v>
       </c>
@@ -9113,7 +9120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>1207</v>
       </c>
@@ -9124,7 +9131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>1208</v>
       </c>
@@ -9135,7 +9142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>1209</v>
       </c>
@@ -9146,7 +9153,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>1210</v>
       </c>
@@ -9157,7 +9164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>1211</v>
       </c>
@@ -9168,7 +9175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="242" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>1212</v>
       </c>
@@ -9179,7 +9186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>1213</v>
       </c>
@@ -9190,7 +9197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>1214</v>
       </c>
@@ -9201,7 +9208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>1215</v>
       </c>
@@ -9212,7 +9219,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="246" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>1216</v>
       </c>
@@ -9223,7 +9230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>1217</v>
       </c>
@@ -9234,7 +9241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>1218</v>
       </c>
@@ -9245,7 +9252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>1219</v>
       </c>
@@ -9256,7 +9263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>1220</v>
       </c>
@@ -9267,7 +9274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>1221</v>
       </c>
@@ -9278,7 +9285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>1222</v>
       </c>
@@ -9289,7 +9296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>1223</v>
       </c>
@@ -9300,7 +9307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>1224</v>
       </c>
@@ -9311,7 +9318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>1225</v>
       </c>
@@ -9322,7 +9329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="256" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>1226</v>
       </c>
@@ -9333,7 +9340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="257" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>1227</v>
       </c>
@@ -9344,7 +9351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="258" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>1228</v>
       </c>
@@ -9355,7 +9362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>1229</v>
       </c>
@@ -9366,7 +9373,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="260" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>1230</v>
       </c>
@@ -9377,7 +9384,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>1231</v>
       </c>
@@ -9388,7 +9395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>1232</v>
       </c>
@@ -9399,7 +9406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>1233</v>
       </c>
@@ -9410,7 +9417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>1234</v>
       </c>
@@ -9421,7 +9428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>1235</v>
       </c>
@@ -9432,7 +9439,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>1236</v>
       </c>
@@ -9443,7 +9450,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>1237</v>
       </c>
@@ -9454,7 +9461,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="268" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>1238</v>
       </c>
@@ -9465,7 +9472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>1239</v>
       </c>
@@ -9476,7 +9483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>1240</v>
       </c>
@@ -9487,7 +9494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>1241</v>
       </c>
@@ -9498,7 +9505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>1242</v>
       </c>
@@ -9509,7 +9516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>1243</v>
       </c>
@@ -9520,7 +9527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>1244</v>
       </c>
@@ -9531,7 +9538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>1245</v>
       </c>
@@ -9542,7 +9549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>1246</v>
       </c>
@@ -9553,7 +9560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>1247</v>
       </c>
@@ -9564,7 +9571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>1248</v>
       </c>
@@ -9575,7 +9582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>1249</v>
       </c>
@@ -9586,7 +9593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>1250</v>
       </c>
@@ -9597,7 +9604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>1251</v>
       </c>
@@ -9608,7 +9615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>1252</v>
       </c>
@@ -9619,7 +9626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>1253</v>
       </c>
@@ -9630,7 +9637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>1254</v>
       </c>
@@ -9641,7 +9648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>1255</v>
       </c>
@@ -9652,7 +9659,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="286" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>1256</v>
       </c>
@@ -9663,7 +9670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>1257</v>
       </c>
@@ -9674,7 +9681,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="288" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>1258</v>
       </c>
@@ -9685,7 +9692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>1259</v>
       </c>
@@ -9696,7 +9703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="290" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>1260</v>
       </c>
@@ -9707,7 +9714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>1261</v>
       </c>
@@ -9718,7 +9725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="292" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>1262</v>
       </c>
@@ -9729,7 +9736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>1263</v>
       </c>
@@ -9740,7 +9747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>1264</v>
       </c>
@@ -9751,7 +9758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>1265</v>
       </c>
@@ -9762,7 +9769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>1266</v>
       </c>
@@ -9773,7 +9780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="297" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>1267</v>
       </c>
@@ -9784,7 +9791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>1268</v>
       </c>
@@ -9795,7 +9802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>1269</v>
       </c>
@@ -9806,7 +9813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>1270</v>
       </c>
@@ -9817,7 +9824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>1271</v>
       </c>
@@ -9828,7 +9835,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="302" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>1272</v>
       </c>
@@ -9839,7 +9846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="303" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>1273</v>
       </c>
@@ -9850,7 +9857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>1274</v>
       </c>
@@ -9861,7 +9868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>1275</v>
       </c>
@@ -9872,7 +9879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>1276</v>
       </c>
@@ -9883,7 +9890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>1277</v>
       </c>
@@ -9894,7 +9901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>1278</v>
       </c>
@@ -9905,7 +9912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>1279</v>
       </c>
@@ -9916,7 +9923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>1280</v>
       </c>
@@ -9927,7 +9934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>1281</v>
       </c>
@@ -9938,7 +9945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>1282</v>
       </c>
@@ -9949,7 +9956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>1283</v>
       </c>
@@ -9960,7 +9967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>1284</v>
       </c>
@@ -9971,7 +9978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>1285</v>
       </c>
@@ -9982,7 +9989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="316" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>1286</v>
       </c>
@@ -9993,7 +10000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>1287</v>
       </c>
@@ -10004,7 +10011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>1288</v>
       </c>
@@ -10015,7 +10022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>1289</v>
       </c>
@@ -10026,7 +10033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>1290</v>
       </c>
@@ -10037,7 +10044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>1291</v>
       </c>
@@ -10048,7 +10055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>1292</v>
       </c>
@@ -10059,7 +10066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>1293</v>
       </c>
@@ -10070,7 +10077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>1294</v>
       </c>
@@ -10081,7 +10088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>1295</v>
       </c>
@@ -10092,7 +10099,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="326" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>1296</v>
       </c>
@@ -10103,7 +10110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>1297</v>
       </c>
@@ -10114,7 +10121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>1298</v>
       </c>
@@ -10125,7 +10132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>1299</v>
       </c>
@@ -10136,7 +10143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>1300</v>
       </c>
@@ -10147,7 +10154,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="331" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>1301</v>
       </c>
@@ -10158,7 +10165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="332" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>1302</v>
       </c>
@@ -10169,7 +10176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>1303</v>
       </c>
@@ -10180,7 +10187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>1304</v>
       </c>
@@ -10191,7 +10198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>1305</v>
       </c>
@@ -10202,7 +10209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>1306</v>
       </c>
@@ -10213,7 +10220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>1307</v>
       </c>
@@ -10224,7 +10231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="338" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>1308</v>
       </c>
@@ -10235,7 +10242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>1309</v>
       </c>
@@ -10246,7 +10253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>1310</v>
       </c>
@@ -10257,7 +10264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>1311</v>
       </c>
@@ -10268,7 +10275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>1312</v>
       </c>
@@ -10279,7 +10286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>1313</v>
       </c>
@@ -10290,7 +10297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>1314</v>
       </c>
@@ -10301,7 +10308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>1315</v>
       </c>
@@ -10312,7 +10319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>1316</v>
       </c>
@@ -10323,7 +10330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>1317</v>
       </c>
@@ -10334,7 +10341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>1318</v>
       </c>
@@ -10345,7 +10352,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="349" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>1319</v>
       </c>
@@ -10356,7 +10363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="350" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>1320</v>
       </c>
@@ -10367,7 +10374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>1321</v>
       </c>
@@ -10378,7 +10385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>1322</v>
       </c>
@@ -10389,7 +10396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>1323</v>
       </c>
@@ -10400,7 +10407,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="354" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>1324</v>
       </c>
@@ -10411,7 +10418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>1325</v>
       </c>
@@ -10422,7 +10429,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="356" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>1326</v>
       </c>
@@ -10433,7 +10440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>1327</v>
       </c>
@@ -10444,7 +10451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="358" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>1328</v>
       </c>
@@ -10455,7 +10462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>1329</v>
       </c>
@@ -10466,7 +10473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>1330</v>
       </c>
@@ -10477,7 +10484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>1331</v>
       </c>
@@ -10488,7 +10495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>1332</v>
       </c>
@@ -10499,7 +10506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>1333</v>
       </c>
@@ -10510,7 +10517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>1334</v>
       </c>
@@ -10521,7 +10528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="365" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>1335</v>
       </c>
@@ -10532,7 +10539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>1336</v>
       </c>
@@ -10543,7 +10550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>1337</v>
       </c>
@@ -10554,7 +10561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>1338</v>
       </c>
@@ -10565,7 +10572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>1339</v>
       </c>
@@ -10576,7 +10583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>1340</v>
       </c>
@@ -10587,7 +10594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>1341</v>
       </c>
@@ -10598,7 +10605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>1342</v>
       </c>
@@ -10609,7 +10616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>1343</v>
       </c>
@@ -10620,7 +10627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>1344</v>
       </c>
@@ -10631,7 +10638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>1345</v>
       </c>
@@ -10642,7 +10649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>1346</v>
       </c>
@@ -10653,7 +10660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>1347</v>
       </c>
@@ -10664,7 +10671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>1348</v>
       </c>
@@ -10675,7 +10682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>1349</v>
       </c>
@@ -10686,7 +10693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="380" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>1350</v>
       </c>
@@ -10697,7 +10704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>1351</v>
       </c>
@@ -10708,7 +10715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>1352</v>
       </c>
@@ -10719,7 +10726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>1353</v>
       </c>
@@ -10730,7 +10737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>1354</v>
       </c>
@@ -10741,7 +10748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
         <v>1355</v>
       </c>
@@ -10752,7 +10759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="386" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>1356</v>
       </c>
@@ -10763,7 +10770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="387" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>1357</v>
       </c>
@@ -10774,7 +10781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>1358</v>
       </c>
@@ -10785,7 +10792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>1359</v>
       </c>
@@ -10796,7 +10803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>1360</v>
       </c>
@@ -10807,7 +10814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>1361</v>
       </c>
@@ -10818,7 +10825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="392" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>1362</v>
       </c>
@@ -10829,7 +10836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>1363</v>
       </c>
@@ -10840,7 +10847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="394" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>1364</v>
       </c>
@@ -10851,7 +10858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="395" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>1365</v>
       </c>
@@ -10862,7 +10869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="396" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>1366</v>
       </c>
@@ -10873,7 +10880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="397" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>1367</v>
       </c>
@@ -10884,7 +10891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>1368</v>
       </c>
@@ -10895,7 +10902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>1369</v>
       </c>
@@ -10906,7 +10913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="400" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>1370</v>
       </c>
@@ -10917,7 +10924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>1371</v>
       </c>
@@ -10928,7 +10935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="402" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>1372</v>
       </c>
@@ -10939,7 +10946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>1373</v>
       </c>
@@ -10950,7 +10957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>1374</v>
       </c>
@@ -10961,7 +10968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>1375</v>
       </c>
@@ -10972,7 +10979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>1376</v>
       </c>
@@ -10983,7 +10990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="407" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>1377</v>
       </c>
@@ -10994,7 +11001,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="408" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>1378</v>
       </c>
@@ -11005,7 +11012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="409" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>1379</v>
       </c>
@@ -11016,7 +11023,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="410" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>1380</v>
       </c>
@@ -11027,7 +11034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>1381</v>
       </c>
@@ -11038,7 +11045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>1382</v>
       </c>
@@ -11049,7 +11056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
         <v>1383</v>
       </c>
@@ -11060,7 +11067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
         <v>1384</v>
       </c>
@@ -11071,7 +11078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="415" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
         <v>1385</v>
       </c>
@@ -11082,7 +11089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="416" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
         <v>1386</v>
       </c>
@@ -11093,7 +11100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="417" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
         <v>1387</v>
       </c>
@@ -11104,7 +11111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
         <v>1388</v>
       </c>
@@ -11115,7 +11122,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="419" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
         <v>1389</v>
       </c>
@@ -11126,7 +11133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="420" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
         <v>1390</v>
       </c>
@@ -11137,7 +11144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="421" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>1391</v>
       </c>
@@ -11148,7 +11155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>1392</v>
       </c>
@@ -11159,7 +11166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>1393</v>
       </c>
@@ -11170,7 +11177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
         <v>1394</v>
       </c>
@@ -11181,7 +11188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>1395</v>
       </c>
@@ -11192,7 +11199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="426" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>1396</v>
       </c>
@@ -11203,7 +11210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>1397</v>
       </c>
@@ -11214,7 +11221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="428" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>1398</v>
       </c>
@@ -11225,7 +11232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>1399</v>
       </c>
@@ -11236,7 +11243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="430" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
         <v>1400</v>
       </c>
@@ -11247,7 +11254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>1401</v>
       </c>
@@ -11258,7 +11265,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="432" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>1402</v>
       </c>
@@ -11269,7 +11276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
         <v>1403</v>
       </c>
@@ -11280,7 +11287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
         <v>1404</v>
       </c>
@@ -11291,7 +11298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>1405</v>
       </c>
@@ -11302,7 +11309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
         <v>1406</v>
       </c>
@@ -11313,7 +11320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="437" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
         <v>1407</v>
       </c>
@@ -11324,7 +11331,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="438" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
         <v>1408</v>
       </c>
@@ -11335,7 +11342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
         <v>1409</v>
       </c>
@@ -11346,7 +11353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
         <v>1410</v>
       </c>
@@ -11357,7 +11364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
         <v>1411</v>
       </c>
@@ -11368,7 +11375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
         <v>1412</v>
       </c>
@@ -11379,7 +11386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="443" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
         <v>1413</v>
       </c>
@@ -11390,7 +11397,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="444" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
         <v>1414</v>
       </c>
@@ -11401,7 +11408,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="445" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
         <v>1415</v>
       </c>
@@ -11412,7 +11419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="446" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
         <v>1416</v>
       </c>
@@ -11423,7 +11430,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="447" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
         <v>1417</v>
       </c>
@@ -11434,7 +11441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="448" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>1418</v>
       </c>
@@ -11445,7 +11452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
         <v>1419</v>
       </c>
@@ -11456,7 +11463,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="450" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>1420</v>
       </c>
@@ -11467,7 +11474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>1421</v>
       </c>
@@ -11478,7 +11485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
         <v>1422</v>
       </c>
@@ -11489,7 +11496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="453" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
         <v>1423</v>
       </c>
@@ -11500,7 +11507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
         <v>1424</v>
       </c>
@@ -11511,7 +11518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="455" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
         <v>1425</v>
       </c>
@@ -11522,7 +11529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
         <v>1426</v>
       </c>
@@ -11533,7 +11540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
         <v>1427</v>
       </c>
@@ -11544,7 +11551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="458" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="4" t="s">
         <v>1428</v>
       </c>
@@ -11555,7 +11562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="459" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="4" t="s">
         <v>1429</v>
       </c>
@@ -11566,7 +11573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
         <v>1430</v>
       </c>
@@ -11577,7 +11584,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="461" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="4" t="s">
         <v>1431</v>
       </c>
@@ -11588,7 +11595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="462" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="4" t="s">
         <v>1432</v>
       </c>
@@ -11599,7 +11606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="463" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="4" t="s">
         <v>1433</v>
       </c>
@@ -11610,7 +11617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="464" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
         <v>1434</v>
       </c>
@@ -11621,7 +11628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="4" t="s">
         <v>1435</v>
       </c>
@@ -11632,7 +11639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="466" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
         <v>1436</v>
       </c>
@@ -11643,7 +11650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="467" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
         <v>1437</v>
       </c>
@@ -11654,7 +11661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="468" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
         <v>1438</v>
       </c>
@@ -11665,7 +11672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
         <v>1439</v>
       </c>
@@ -11676,7 +11683,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="470" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
         <v>1440</v>
       </c>
@@ -11687,7 +11694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
         <v>1441</v>
       </c>
@@ -11698,7 +11705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="472" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
         <v>1442</v>
       </c>
@@ -11709,7 +11716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
         <v>1443</v>
       </c>
@@ -11720,7 +11727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="474" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
         <v>1444</v>
       </c>
@@ -11731,7 +11738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
         <v>1445</v>
       </c>
@@ -11742,7 +11749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="476" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
         <v>1446</v>
       </c>
@@ -11753,7 +11760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
         <v>1447</v>
       </c>
@@ -11764,7 +11771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="478" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
         <v>1448</v>
       </c>
@@ -11775,7 +11782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="4" t="s">
         <v>1449</v>
       </c>
@@ -11786,7 +11793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="480" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
         <v>1450</v>
       </c>
@@ -11797,7 +11804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="481" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
         <v>1451</v>
       </c>
@@ -11808,7 +11815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
         <v>1452</v>
       </c>
@@ -11819,7 +11826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
         <v>1453</v>
       </c>
@@ -11830,7 +11837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="484" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="4" t="s">
         <v>1454</v>
       </c>
@@ -11841,7 +11848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="485" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
         <v>1455</v>
       </c>
@@ -11852,7 +11859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
         <v>1456</v>
       </c>
@@ -11863,7 +11870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="4" t="s">
         <v>1457</v>
       </c>
@@ -11874,7 +11881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="488" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="4" t="s">
         <v>1458</v>
       </c>
@@ -11885,7 +11892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="489" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="4" t="s">
         <v>1459</v>
       </c>
@@ -11896,7 +11903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="4" t="s">
         <v>1460</v>
       </c>
@@ -11907,7 +11914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
         <v>1461</v>
       </c>
@@ -11918,7 +11925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="492" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
         <v>1462</v>
       </c>
@@ -11929,7 +11936,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="493" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="4" t="s">
         <v>1463</v>
       </c>
@@ -11940,7 +11947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
         <v>1464</v>
       </c>
@@ -11951,7 +11958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="495" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
         <v>1465</v>
       </c>
@@ -11962,7 +11969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
         <v>1466</v>
       </c>
@@ -11973,7 +11980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="497" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="4" t="s">
         <v>1467</v>
       </c>
@@ -11984,7 +11991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="498" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="4" t="s">
         <v>1468</v>
       </c>
@@ -11995,7 +12002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="4" t="s">
         <v>1469</v>
       </c>
@@ -12006,7 +12013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="500" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="4" t="s">
         <v>1470</v>
       </c>
@@ -12017,7 +12024,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="501" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="4" t="s">
         <v>1471</v>
       </c>
@@ -12028,7 +12035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="4" t="s">
         <v>1472</v>
       </c>
@@ -12039,18 +12046,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="503" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="4" t="s">
         <v>1473</v>
       </c>
-      <c r="B503" s="6" t="s">
+      <c r="B503" s="5" t="s">
         <v>503</v>
       </c>
       <c r="C503" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="504" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="4" t="s">
         <v>1474</v>
       </c>
@@ -12061,7 +12068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="505" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="4" t="s">
         <v>1475</v>
       </c>
@@ -12072,7 +12079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="506" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="4" t="s">
         <v>1476</v>
       </c>
@@ -12083,7 +12090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="507" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="4" t="s">
         <v>1477</v>
       </c>
@@ -12094,7 +12101,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="508" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="4" t="s">
         <v>1478</v>
       </c>
@@ -12105,7 +12112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="4" t="s">
         <v>1479</v>
       </c>
@@ -12116,7 +12123,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="510" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="4" t="s">
         <v>1480</v>
       </c>
@@ -12127,7 +12134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="511" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="4" t="s">
         <v>1481</v>
       </c>
@@ -12138,7 +12145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="4" t="s">
         <v>1482</v>
       </c>
@@ -12149,7 +12156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="513" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="4" t="s">
         <v>1483</v>
       </c>
@@ -12160,7 +12167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="514" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="4" t="s">
         <v>1484</v>
       </c>
@@ -12171,7 +12178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="515" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="4" t="s">
         <v>1485</v>
       </c>
@@ -12182,7 +12189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="516" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="4" t="s">
         <v>1486</v>
       </c>
@@ -12193,7 +12200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="4" t="s">
         <v>1487</v>
       </c>
@@ -12204,7 +12211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="518" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="4" t="s">
         <v>1488</v>
       </c>
@@ -12215,7 +12222,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="519" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="4" t="s">
         <v>1489</v>
       </c>
@@ -12226,7 +12233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="4" t="s">
         <v>1490</v>
       </c>
@@ -12237,7 +12244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="521" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="4" t="s">
         <v>1491</v>
       </c>
@@ -12248,7 +12255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="522" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="4" t="s">
         <v>1492</v>
       </c>
@@ -12259,7 +12266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="4" t="s">
         <v>1493</v>
       </c>
@@ -12270,7 +12277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="4" t="s">
         <v>1494</v>
       </c>
@@ -12281,7 +12288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="525" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="4" t="s">
         <v>1495</v>
       </c>
@@ -12292,7 +12299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="526" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="4" t="s">
         <v>1496</v>
       </c>
@@ -12303,7 +12310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="4" t="s">
         <v>1497</v>
       </c>
@@ -12314,7 +12321,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="528" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="4" t="s">
         <v>1498</v>
       </c>
@@ -12325,7 +12332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="529" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="4" t="s">
         <v>1499</v>
       </c>
@@ -12336,7 +12343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="4" t="s">
         <v>1500</v>
       </c>
@@ -12347,7 +12354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="531" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="4" t="s">
         <v>1501</v>
       </c>
@@ -12358,7 +12365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="4" t="s">
         <v>1502</v>
       </c>
@@ -12369,7 +12376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="4" t="s">
         <v>1503</v>
       </c>
@@ -12380,7 +12387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="534" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="4" t="s">
         <v>1504</v>
       </c>
@@ -12391,7 +12398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="535" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="4" t="s">
         <v>1505</v>
       </c>
@@ -12402,7 +12409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="536" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="4" t="s">
         <v>1506</v>
       </c>
@@ -12413,7 +12420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="537" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="4" t="s">
         <v>1507</v>
       </c>
@@ -12424,7 +12431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="538" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="4" t="s">
         <v>1508</v>
       </c>
@@ -12435,7 +12442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="539" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="4" t="s">
         <v>1509</v>
       </c>
@@ -12446,7 +12453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="540" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="4" t="s">
         <v>1510</v>
       </c>
@@ -12457,7 +12464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="541" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="4" t="s">
         <v>1511</v>
       </c>
@@ -12468,7 +12475,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="542" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="4" t="s">
         <v>1512</v>
       </c>
@@ -12479,7 +12486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="543" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="4" t="s">
         <v>1513</v>
       </c>
@@ -12490,7 +12497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="544" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="4" t="s">
         <v>1514</v>
       </c>
@@ -12501,7 +12508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="4" t="s">
         <v>1515</v>
       </c>
@@ -12512,7 +12519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="546" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="4" t="s">
         <v>1516</v>
       </c>
@@ -12523,7 +12530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="547" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="4" t="s">
         <v>1517</v>
       </c>
@@ -12534,7 +12541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="548" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="4" t="s">
         <v>1518</v>
       </c>
@@ -12545,7 +12552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="549" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="4" t="s">
         <v>1519</v>
       </c>
@@ -12556,7 +12563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="550" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="4" t="s">
         <v>1520</v>
       </c>
@@ -12567,7 +12574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="551" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" s="4" t="s">
         <v>1521</v>
       </c>
@@ -12578,7 +12585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="552" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="4" t="s">
         <v>1522</v>
       </c>
@@ -12589,7 +12596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="553" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="4" t="s">
         <v>1523</v>
       </c>
@@ -12600,7 +12607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="554" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="4" t="s">
         <v>1524</v>
       </c>
@@ -12611,7 +12618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="555" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="4" t="s">
         <v>1525</v>
       </c>
@@ -12622,7 +12629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="556" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" s="4" t="s">
         <v>1526</v>
       </c>
@@ -12633,7 +12640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="557" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="4" t="s">
         <v>1527</v>
       </c>
@@ -12644,7 +12651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="558" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="4" t="s">
         <v>1528</v>
       </c>
@@ -12655,7 +12662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="4" t="s">
         <v>1529</v>
       </c>
@@ -12666,7 +12673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="4" t="s">
         <v>1530</v>
       </c>
@@ -12677,7 +12684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="561" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" s="4" t="s">
         <v>1531</v>
       </c>
@@ -12688,7 +12695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="562" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="4" t="s">
         <v>1532</v>
       </c>
@@ -12699,7 +12706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="563" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" s="4" t="s">
         <v>1533</v>
       </c>
@@ -12710,7 +12717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="564" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" s="4" t="s">
         <v>1534</v>
       </c>
@@ -12721,7 +12728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="565" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="4" t="s">
         <v>1535</v>
       </c>
@@ -12732,7 +12739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="566" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" s="4" t="s">
         <v>1536</v>
       </c>
@@ -12743,7 +12750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="567" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="4" t="s">
         <v>1537</v>
       </c>
@@ -12754,7 +12761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="568" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" s="4" t="s">
         <v>1538</v>
       </c>
@@ -12765,7 +12772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="569" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" s="4" t="s">
         <v>1539</v>
       </c>
@@ -12776,7 +12783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="570" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" s="4" t="s">
         <v>1540</v>
       </c>
@@ -12787,7 +12794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" s="4" t="s">
         <v>1541</v>
       </c>
@@ -12798,7 +12805,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="572" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="4" t="s">
         <v>1542</v>
       </c>
@@ -12809,7 +12816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="573" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="4" t="s">
         <v>1543</v>
       </c>
@@ -12820,7 +12827,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="574" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="4" t="s">
         <v>1544</v>
       </c>
@@ -12831,7 +12838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="575" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="4" t="s">
         <v>1545</v>
       </c>
@@ -12842,7 +12849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="576" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" s="4" t="s">
         <v>1546</v>
       </c>
@@ -12853,7 +12860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="577" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" s="4" t="s">
         <v>1547</v>
       </c>
@@ -12864,7 +12871,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="578" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="4" t="s">
         <v>1548</v>
       </c>
@@ -12875,7 +12882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="579" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" s="4" t="s">
         <v>1549</v>
       </c>
@@ -12886,7 +12893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="580" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="4" t="s">
         <v>1550</v>
       </c>
@@ -12897,7 +12904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="581" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" s="4" t="s">
         <v>1551</v>
       </c>
@@ -12908,7 +12915,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="582" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="4" t="s">
         <v>1552</v>
       </c>
@@ -12919,7 +12926,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="583" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="4" t="s">
         <v>1553</v>
       </c>
@@ -12930,7 +12937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="584" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="4" t="s">
         <v>1554</v>
       </c>
@@ -12941,7 +12948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="585" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" s="4" t="s">
         <v>1555</v>
       </c>
@@ -12952,7 +12959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="586" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="4" t="s">
         <v>1556</v>
       </c>
@@ -12963,7 +12970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="587" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" s="4" t="s">
         <v>1557</v>
       </c>
@@ -12974,7 +12981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="588" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="4" t="s">
         <v>1558</v>
       </c>
@@ -12985,7 +12992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="589" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="4" t="s">
         <v>1559</v>
       </c>
@@ -12996,7 +13003,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="590" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="4" t="s">
         <v>1560</v>
       </c>
@@ -13007,7 +13014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="591" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="4" t="s">
         <v>1561</v>
       </c>
@@ -13018,7 +13025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="592" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="4" t="s">
         <v>1562</v>
       </c>
@@ -13029,7 +13036,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="593" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="4" t="s">
         <v>1563</v>
       </c>
@@ -13040,7 +13047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="594" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="4" t="s">
         <v>1564</v>
       </c>
@@ -13051,7 +13058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="595" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="4" t="s">
         <v>1565</v>
       </c>
@@ -13062,7 +13069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="596" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="4" t="s">
         <v>1566</v>
       </c>
@@ -13073,7 +13080,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="597" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="4" t="s">
         <v>1567</v>
       </c>
@@ -13084,7 +13091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="598" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="4" t="s">
         <v>1568</v>
       </c>
@@ -13095,7 +13102,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="599" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="4" t="s">
         <v>1569</v>
       </c>
@@ -13106,7 +13113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="600" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="4" t="s">
         <v>1570</v>
       </c>
@@ -13117,7 +13124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="601" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="4" t="s">
         <v>1571</v>
       </c>
@@ -13128,7 +13135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="602" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" s="4" t="s">
         <v>1572</v>
       </c>
@@ -13139,7 +13146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="603" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" s="4" t="s">
         <v>1573</v>
       </c>
@@ -13150,7 +13157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="604" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="4" t="s">
         <v>1574</v>
       </c>
@@ -13161,7 +13168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="605" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="4" t="s">
         <v>1575</v>
       </c>
@@ -13172,7 +13179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="606" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="4" t="s">
         <v>1576</v>
       </c>
@@ -13183,7 +13190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="607" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="4" t="s">
         <v>1577</v>
       </c>
@@ -13194,7 +13201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="608" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="4" t="s">
         <v>1578</v>
       </c>
@@ -13205,7 +13212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="609" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="4" t="s">
         <v>1579</v>
       </c>
@@ -13216,7 +13223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="610" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="4" t="s">
         <v>1580</v>
       </c>
@@ -13227,7 +13234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="611" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="4" t="s">
         <v>1581</v>
       </c>
@@ -13238,7 +13245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="612" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="4" t="s">
         <v>1582</v>
       </c>
@@ -13249,7 +13256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="613" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="4" t="s">
         <v>1583</v>
       </c>
@@ -13260,7 +13267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="614" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="4" t="s">
         <v>1584</v>
       </c>
@@ -13271,7 +13278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="615" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="4" t="s">
         <v>1585</v>
       </c>
@@ -13282,7 +13289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="616" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="4" t="s">
         <v>1586</v>
       </c>
@@ -13293,7 +13300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="617" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="4" t="s">
         <v>1587</v>
       </c>
@@ -13304,7 +13311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="618" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="4" t="s">
         <v>1588</v>
       </c>
@@ -13315,7 +13322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="619" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="4" t="s">
         <v>1589</v>
       </c>
@@ -13326,7 +13333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="620" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="4" t="s">
         <v>1590</v>
       </c>
@@ -13337,7 +13344,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="621" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="4" t="s">
         <v>1591</v>
       </c>
@@ -13348,7 +13355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="622" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="4" t="s">
         <v>1592</v>
       </c>
@@ -13359,7 +13366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="623" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="4" t="s">
         <v>1593</v>
       </c>
@@ -13370,7 +13377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="624" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="4" t="s">
         <v>1594</v>
       </c>
@@ -13381,7 +13388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="625" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="4" t="s">
         <v>1595</v>
       </c>
@@ -13392,7 +13399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="626" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="4" t="s">
         <v>1596</v>
       </c>
@@ -13403,7 +13410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="627" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="4" t="s">
         <v>1597</v>
       </c>
@@ -13414,7 +13421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="628" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="4" t="s">
         <v>1598</v>
       </c>
@@ -13425,7 +13432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="629" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="4" t="s">
         <v>1599</v>
       </c>
@@ -13436,7 +13443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="630" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="4" t="s">
         <v>1600</v>
       </c>
@@ -13447,7 +13454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="631" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="4" t="s">
         <v>1601</v>
       </c>
@@ -13458,7 +13465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="632" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="4" t="s">
         <v>1602</v>
       </c>
@@ -13469,7 +13476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="633" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="4" t="s">
         <v>1603</v>
       </c>
@@ -13480,7 +13487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="634" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="4" t="s">
         <v>1604</v>
       </c>
@@ -13491,7 +13498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="635" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="4" t="s">
         <v>1605</v>
       </c>
@@ -13502,7 +13509,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="636" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="4" t="s">
         <v>1606</v>
       </c>
@@ -13513,7 +13520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="637" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="4" t="s">
         <v>1607</v>
       </c>
@@ -13524,7 +13531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="638" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="4" t="s">
         <v>1608</v>
       </c>
@@ -13535,7 +13542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="639" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="4" t="s">
         <v>1609</v>
       </c>
@@ -13546,7 +13553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="640" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="4" t="s">
         <v>1610</v>
       </c>
@@ -13557,7 +13564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="641" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="4" t="s">
         <v>1611</v>
       </c>
@@ -13568,7 +13575,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="642" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="4" t="s">
         <v>1612</v>
       </c>
@@ -13579,7 +13586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="643" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="4" t="s">
         <v>1613</v>
       </c>
@@ -13590,7 +13597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="644" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="4" t="s">
         <v>1614</v>
       </c>
@@ -13601,7 +13608,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="645" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="4" t="s">
         <v>1615</v>
       </c>
@@ -13612,7 +13619,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="646" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="4" t="s">
         <v>1616</v>
       </c>
@@ -13623,7 +13630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="647" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="4" t="s">
         <v>1617</v>
       </c>
@@ -13634,7 +13641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="648" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="4" t="s">
         <v>1618</v>
       </c>
@@ -13645,7 +13652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="649" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="4" t="s">
         <v>1619</v>
       </c>
@@ -13656,7 +13663,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="650" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="4" t="s">
         <v>1620</v>
       </c>
@@ -13667,7 +13674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="651" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="4" t="s">
         <v>1621</v>
       </c>
@@ -13678,7 +13685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="652" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="4" t="s">
         <v>1622</v>
       </c>
@@ -13689,7 +13696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="653" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="4" t="s">
         <v>1623</v>
       </c>
@@ -13700,7 +13707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="654" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="4" t="s">
         <v>1624</v>
       </c>
@@ -13711,7 +13718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="655" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="4" t="s">
         <v>1625</v>
       </c>
@@ -13722,7 +13729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="656" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="4" t="s">
         <v>1626</v>
       </c>
@@ -13733,7 +13740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="657" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="4" t="s">
         <v>1627</v>
       </c>
@@ -13744,7 +13751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="658" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="4" t="s">
         <v>1628</v>
       </c>
@@ -13755,7 +13762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="659" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="4" t="s">
         <v>1629</v>
       </c>
@@ -13766,7 +13773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="660" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="4" t="s">
         <v>1630</v>
       </c>
@@ -13777,7 +13784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="661" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="4" t="s">
         <v>1631</v>
       </c>
@@ -13788,7 +13795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="662" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="4" t="s">
         <v>1632</v>
       </c>
@@ -13799,7 +13806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="663" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="4" t="s">
         <v>1633</v>
       </c>
@@ -13810,7 +13817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="664" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="4" t="s">
         <v>1634</v>
       </c>
@@ -13821,7 +13828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="665" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="4" t="s">
         <v>1635</v>
       </c>
@@ -13832,7 +13839,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="666" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="4" t="s">
         <v>1636</v>
       </c>
@@ -13843,7 +13850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="667" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="4" t="s">
         <v>1637</v>
       </c>
@@ -13854,7 +13861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="668" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="4" t="s">
         <v>1638</v>
       </c>
@@ -13865,7 +13872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="669" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="4" t="s">
         <v>1639</v>
       </c>
@@ -13876,7 +13883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="670" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="4" t="s">
         <v>1640</v>
       </c>
@@ -13887,7 +13894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="671" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="4" t="s">
         <v>1641</v>
       </c>
@@ -13898,7 +13905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="672" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="4" t="s">
         <v>1642</v>
       </c>
@@ -13909,7 +13916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="673" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="4" t="s">
         <v>1643</v>
       </c>
@@ -13920,7 +13927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="674" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="4" t="s">
         <v>1644</v>
       </c>
@@ -13931,7 +13938,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="675" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="4" t="s">
         <v>1645</v>
       </c>
@@ -13942,7 +13949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="676" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="4" t="s">
         <v>1646</v>
       </c>
@@ -13953,7 +13960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="677" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="4" t="s">
         <v>1647</v>
       </c>
@@ -13964,7 +13971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="678" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="4" t="s">
         <v>1648</v>
       </c>
@@ -13975,7 +13982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="679" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="4" t="s">
         <v>1649</v>
       </c>
@@ -13986,7 +13993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="680" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="4" t="s">
         <v>1650</v>
       </c>
@@ -13997,7 +14004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="681" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="4" t="s">
         <v>1651</v>
       </c>
@@ -14008,7 +14015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="682" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="4" t="s">
         <v>1652</v>
       </c>
@@ -14019,7 +14026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="683" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="4" t="s">
         <v>1653</v>
       </c>
@@ -14030,7 +14037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="684" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="4" t="s">
         <v>1654</v>
       </c>
@@ -14041,7 +14048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="685" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="4" t="s">
         <v>1655</v>
       </c>
@@ -14052,7 +14059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="686" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="4" t="s">
         <v>1656</v>
       </c>
@@ -14063,7 +14070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="687" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="4" t="s">
         <v>1657</v>
       </c>
@@ -14074,7 +14081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="688" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="4" t="s">
         <v>1658</v>
       </c>
@@ -14085,7 +14092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="689" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="4" t="s">
         <v>1659</v>
       </c>
@@ -14096,7 +14103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="690" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="4" t="s">
         <v>1660</v>
       </c>
@@ -14107,7 +14114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="691" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="4" t="s">
         <v>1661</v>
       </c>
@@ -14118,7 +14125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="692" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="4" t="s">
         <v>1662</v>
       </c>
@@ -14129,7 +14136,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="693" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="4" t="s">
         <v>1663</v>
       </c>
@@ -14140,7 +14147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="694" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="4" t="s">
         <v>1664</v>
       </c>
@@ -14151,7 +14158,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="695" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="4" t="s">
         <v>1665</v>
       </c>
@@ -14162,7 +14169,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="696" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="4" t="s">
         <v>1666</v>
       </c>
@@ -14173,7 +14180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="697" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="4" t="s">
         <v>1667</v>
       </c>
@@ -14184,7 +14191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="698" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="4" t="s">
         <v>1668</v>
       </c>
@@ -14195,7 +14202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="699" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="4" t="s">
         <v>1669</v>
       </c>
@@ -14206,7 +14213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="700" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="4" t="s">
         <v>1670</v>
       </c>
@@ -14217,7 +14224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="701" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="4" t="s">
         <v>1671</v>
       </c>
@@ -14228,7 +14235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="702" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="4" t="s">
         <v>1672</v>
       </c>
@@ -14239,7 +14246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="703" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="4" t="s">
         <v>1673</v>
       </c>
@@ -14250,7 +14257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="704" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="4" t="s">
         <v>1674</v>
       </c>
@@ -14261,7 +14268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="705" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="4" t="s">
         <v>1675</v>
       </c>
@@ -14272,7 +14279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="706" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="4" t="s">
         <v>1676</v>
       </c>
@@ -14283,7 +14290,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="707" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="4" t="s">
         <v>1677</v>
       </c>
@@ -14294,7 +14301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="708" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="4" t="s">
         <v>1678</v>
       </c>
@@ -14305,7 +14312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="709" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="4" t="s">
         <v>1679</v>
       </c>
@@ -14316,7 +14323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="710" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="4" t="s">
         <v>1680</v>
       </c>
@@ -14327,7 +14334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="711" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="4" t="s">
         <v>1681</v>
       </c>
@@ -14338,7 +14345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="712" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="4" t="s">
         <v>1682</v>
       </c>
@@ -14349,7 +14356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="713" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="4" t="s">
         <v>1683</v>
       </c>
@@ -14360,7 +14367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="714" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="4" t="s">
         <v>1684</v>
       </c>
@@ -14371,7 +14378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="715" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="4" t="s">
         <v>1685</v>
       </c>
@@ -14382,7 +14389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="716" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="4" t="s">
         <v>1686</v>
       </c>
@@ -14393,7 +14400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="717" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="4" t="s">
         <v>1687</v>
       </c>
@@ -14404,7 +14411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="718" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="4" t="s">
         <v>1688</v>
       </c>
@@ -14415,7 +14422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="719" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="4" t="s">
         <v>1689</v>
       </c>
@@ -14426,7 +14433,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="720" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="4" t="s">
         <v>1690</v>
       </c>
@@ -14437,7 +14444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="721" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="4" t="s">
         <v>1691</v>
       </c>
@@ -14448,7 +14455,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="722" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="4" t="s">
         <v>1692</v>
       </c>
@@ -14459,7 +14466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="723" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="4" t="s">
         <v>1693</v>
       </c>
@@ -14470,7 +14477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="724" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="4" t="s">
         <v>1694</v>
       </c>
@@ -14481,7 +14488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="725" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="4" t="s">
         <v>1695</v>
       </c>
@@ -14492,7 +14499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="726" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="4" t="s">
         <v>1696</v>
       </c>
@@ -14503,7 +14510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="727" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="4" t="s">
         <v>1697</v>
       </c>
@@ -14514,7 +14521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="728" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="4" t="s">
         <v>1698</v>
       </c>
@@ -14525,7 +14532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="729" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="4" t="s">
         <v>1699</v>
       </c>
@@ -14536,7 +14543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="730" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="4" t="s">
         <v>1700</v>
       </c>
@@ -14547,7 +14554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="731" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="4" t="s">
         <v>1701</v>
       </c>
@@ -14558,7 +14565,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="732" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="4" t="s">
         <v>1702</v>
       </c>
@@ -14569,7 +14576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="733" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="4" t="s">
         <v>1703</v>
       </c>
@@ -14580,7 +14587,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="734" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="4" t="s">
         <v>1704</v>
       </c>
@@ -14591,7 +14598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="735" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="4" t="s">
         <v>1705</v>
       </c>
@@ -14602,7 +14609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="736" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="4" t="s">
         <v>1706</v>
       </c>
@@ -14613,7 +14620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="737" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="4" t="s">
         <v>1707</v>
       </c>
@@ -14624,7 +14631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="738" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="4" t="s">
         <v>1708</v>
       </c>
@@ -14635,7 +14642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="739" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="4" t="s">
         <v>1709</v>
       </c>
@@ -14646,7 +14653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="740" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="4" t="s">
         <v>1710</v>
       </c>
@@ -14657,7 +14664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="741" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="4" t="s">
         <v>1711</v>
       </c>
@@ -14668,7 +14675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="742" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="4" t="s">
         <v>1712</v>
       </c>
@@ -14679,7 +14686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="743" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="4" t="s">
         <v>1713</v>
       </c>
@@ -14690,7 +14697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="744" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="4" t="s">
         <v>1714</v>
       </c>
@@ -14701,7 +14708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="745" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="4" t="s">
         <v>1715</v>
       </c>
@@ -14712,7 +14719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="746" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="4" t="s">
         <v>1716</v>
       </c>
@@ -14723,7 +14730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="747" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="4" t="s">
         <v>1717</v>
       </c>
@@ -14734,7 +14741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="748" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="4" t="s">
         <v>1718</v>
       </c>
@@ -14745,7 +14752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="749" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="4" t="s">
         <v>1719</v>
       </c>
@@ -14756,7 +14763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="750" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="4" t="s">
         <v>1720</v>
       </c>
@@ -14767,7 +14774,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="751" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="4" t="s">
         <v>1721</v>
       </c>
@@ -14778,7 +14785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="752" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="4" t="s">
         <v>1722</v>
       </c>
@@ -14822,7 +14829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="756" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="4" t="s">
         <v>1726</v>
       </c>
@@ -14833,7 +14840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="757" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="4" t="s">
         <v>1727</v>
       </c>
@@ -14844,7 +14851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="758" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="4" t="s">
         <v>1728</v>
       </c>
@@ -14855,7 +14862,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="759" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="4" t="s">
         <v>1729</v>
       </c>
@@ -14866,7 +14873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="760" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="4" t="s">
         <v>1730</v>
       </c>
@@ -14877,7 +14884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="761" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="4" t="s">
         <v>1731</v>
       </c>
@@ -14888,7 +14895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="762" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="4" t="s">
         <v>1732</v>
       </c>
@@ -14899,7 +14906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="763" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="4" t="s">
         <v>1733</v>
       </c>
@@ -14910,7 +14917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="764" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="4" t="s">
         <v>1734</v>
       </c>
@@ -14921,7 +14928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="765" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="4" t="s">
         <v>1735</v>
       </c>
@@ -14932,7 +14939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="766" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="4" t="s">
         <v>1736</v>
       </c>
@@ -14943,7 +14950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="767" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="4" t="s">
         <v>1737</v>
       </c>
@@ -14954,7 +14961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="768" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="4" t="s">
         <v>1738</v>
       </c>
@@ -14965,7 +14972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="769" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="4" t="s">
         <v>1739</v>
       </c>
@@ -14976,7 +14983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="770" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="4" t="s">
         <v>1740</v>
       </c>
@@ -14987,194 +14994,194 @@
         <v>59</v>
       </c>
     </row>
-    <row r="771" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="4" t="s">
         <v>1741</v>
       </c>
-      <c r="B771" s="7" t="s">
+      <c r="B771" s="3" t="s">
         <v>770</v>
       </c>
       <c r="C771" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="772" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="4" t="s">
         <v>1742</v>
       </c>
-      <c r="B772" s="8" t="s">
+      <c r="B772" s="6" t="s">
         <v>771</v>
       </c>
       <c r="C772" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="773" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="4" t="s">
         <v>1743</v>
       </c>
-      <c r="B773" s="8" t="s">
+      <c r="B773" s="6" t="s">
         <v>772</v>
       </c>
       <c r="C773" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="774" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="4" t="s">
         <v>1744</v>
       </c>
-      <c r="B774" s="8" t="s">
+      <c r="B774" s="6" t="s">
         <v>773</v>
       </c>
       <c r="C774" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="775" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="4" t="s">
         <v>1745</v>
       </c>
-      <c r="B775" s="8" t="s">
+      <c r="B775" s="6" t="s">
         <v>774</v>
       </c>
       <c r="C775" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="776" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="4" t="s">
         <v>1746</v>
       </c>
-      <c r="B776" s="8" t="s">
+      <c r="B776" s="6" t="s">
         <v>775</v>
       </c>
       <c r="C776" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="777" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="4" t="s">
         <v>1747</v>
       </c>
-      <c r="B777" s="8" t="s">
+      <c r="B777" s="6" t="s">
         <v>776</v>
       </c>
       <c r="C777" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="778" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="4" t="s">
         <v>1748</v>
       </c>
-      <c r="B778" s="8" t="s">
+      <c r="B778" s="6" t="s">
         <v>777</v>
       </c>
       <c r="C778" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="779" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="4" t="s">
         <v>1749</v>
       </c>
-      <c r="B779" s="8" t="s">
+      <c r="B779" s="6" t="s">
         <v>778</v>
       </c>
       <c r="C779" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="780" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="4" t="s">
         <v>1750</v>
       </c>
-      <c r="B780" s="8" t="s">
+      <c r="B780" s="6" t="s">
         <v>779</v>
       </c>
       <c r="C780" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="781" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="4" t="s">
         <v>1751</v>
       </c>
-      <c r="B781" s="8" t="s">
+      <c r="B781" s="6" t="s">
         <v>780</v>
       </c>
       <c r="C781" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="782" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="4" t="s">
         <v>1752</v>
       </c>
-      <c r="B782" s="8" t="s">
+      <c r="B782" s="6" t="s">
         <v>781</v>
       </c>
       <c r="C782" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="783" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="4" t="s">
         <v>1753</v>
       </c>
-      <c r="B783" s="8" t="s">
+      <c r="B783" s="6" t="s">
         <v>782</v>
       </c>
       <c r="C783" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="784" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="4" t="s">
         <v>1754</v>
       </c>
-      <c r="B784" s="8" t="s">
+      <c r="B784" s="6" t="s">
         <v>783</v>
       </c>
       <c r="C784" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="785" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="4" t="s">
         <v>1755</v>
       </c>
-      <c r="B785" s="8" t="s">
+      <c r="B785" s="6" t="s">
         <v>784</v>
       </c>
       <c r="C785" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="786" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="4" t="s">
         <v>1756</v>
       </c>
-      <c r="B786" s="8" t="s">
+      <c r="B786" s="6" t="s">
         <v>785</v>
       </c>
       <c r="C786" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="787" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="4" t="s">
         <v>1757</v>
       </c>
-      <c r="B787" s="8" t="s">
+      <c r="B787" s="6" t="s">
         <v>786</v>
       </c>
       <c r="C787" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="788" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="4" t="s">
         <v>1758</v>
       </c>
@@ -15185,7 +15192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="789" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="4" t="s">
         <v>1759</v>
       </c>
@@ -15266,69 +15273,69 @@
       <c r="A796" s="4" t="s">
         <v>1766</v>
       </c>
-      <c r="B796" s="9" t="s">
+      <c r="B796" s="7" t="s">
         <v>795</v>
       </c>
       <c r="C796" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="797" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="4" t="s">
         <v>1767</v>
       </c>
-      <c r="B797" s="9" t="s">
+      <c r="B797" s="7" t="s">
         <v>796</v>
       </c>
       <c r="C797" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="798" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="4" t="s">
         <v>1768</v>
       </c>
-      <c r="B798" s="9" t="s">
+      <c r="B798" s="7" t="s">
         <v>797</v>
       </c>
       <c r="C798" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="799" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="4" t="s">
         <v>1769</v>
       </c>
-      <c r="B799" s="9" t="s">
+      <c r="B799" s="7" t="s">
         <v>798</v>
       </c>
       <c r="C799" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="800" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="4" t="s">
         <v>1770</v>
       </c>
-      <c r="B800" s="9" t="s">
+      <c r="B800" s="7" t="s">
         <v>799</v>
       </c>
       <c r="C800" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="801" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="4" t="s">
         <v>1771</v>
       </c>
-      <c r="B801" s="9" t="s">
+      <c r="B801" s="7" t="s">
         <v>800</v>
       </c>
       <c r="C801" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="802" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" s="4" t="s">
         <v>1772</v>
       </c>
@@ -15339,7 +15346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="803" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" s="4" t="s">
         <v>1773</v>
       </c>
@@ -15350,7 +15357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="804" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="4" t="s">
         <v>1774</v>
       </c>
@@ -15361,7 +15368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="805" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="4" t="s">
         <v>1775</v>
       </c>
@@ -15372,7 +15379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="806" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" s="4" t="s">
         <v>1776</v>
       </c>
@@ -15383,7 +15390,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="807" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="4" t="s">
         <v>1777</v>
       </c>
@@ -15394,7 +15401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="808" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" s="4" t="s">
         <v>1778</v>
       </c>
@@ -15405,7 +15412,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="809" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" s="4" t="s">
         <v>1779</v>
       </c>
@@ -15416,7 +15423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="810" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" s="4" t="s">
         <v>1780</v>
       </c>
@@ -15427,7 +15434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="811" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" s="4" t="s">
         <v>1781</v>
       </c>
@@ -15438,7 +15445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="812" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" s="4" t="s">
         <v>1782</v>
       </c>
@@ -15449,7 +15456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="813" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" s="4" t="s">
         <v>1783</v>
       </c>
@@ -15460,7 +15467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="814" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" s="4" t="s">
         <v>1784</v>
       </c>
@@ -15471,7 +15478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="815" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" s="4" t="s">
         <v>1785</v>
       </c>
@@ -15482,7 +15489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="816" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" s="4" t="s">
         <v>1786</v>
       </c>
@@ -15493,7 +15500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="817" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="4" t="s">
         <v>1787</v>
       </c>
@@ -15504,7 +15511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="818" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="4" t="s">
         <v>1788</v>
       </c>
@@ -15515,7 +15522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="819" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="4" t="s">
         <v>1789</v>
       </c>
@@ -15526,7 +15533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="820" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="4" t="s">
         <v>1790</v>
       </c>
@@ -15537,7 +15544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="821" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" s="4" t="s">
         <v>1791</v>
       </c>
@@ -15548,7 +15555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="822" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="4" t="s">
         <v>1792</v>
       </c>
@@ -15559,7 +15566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="823" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="4" t="s">
         <v>1793</v>
       </c>
@@ -15570,7 +15577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="824" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="4" t="s">
         <v>1794</v>
       </c>
@@ -15581,7 +15588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="825" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" s="4" t="s">
         <v>1795</v>
       </c>
@@ -15592,7 +15599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="826" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="4" t="s">
         <v>1796</v>
       </c>
@@ -15603,7 +15610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="827" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" s="4" t="s">
         <v>1797</v>
       </c>
@@ -15614,7 +15621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="828" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="4" t="s">
         <v>1798</v>
       </c>
@@ -15625,7 +15632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="829" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="4" t="s">
         <v>1799</v>
       </c>
@@ -15636,7 +15643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="830" spans="1:3" s="5" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="4" t="s">
         <v>1800</v>
       </c>
@@ -15647,7 +15654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="831" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="4" t="s">
         <v>1801</v>
       </c>
@@ -15658,7 +15665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="832" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" s="4" t="s">
         <v>1802</v>
       </c>
@@ -15669,7 +15676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="833" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" s="4" t="s">
         <v>1803</v>
       </c>
@@ -15680,7 +15687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="834" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" s="4" t="s">
         <v>1804</v>
       </c>
@@ -15691,7 +15698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="835" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" s="4" t="s">
         <v>1805</v>
       </c>
@@ -15702,7 +15709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="836" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" s="4" t="s">
         <v>1806</v>
       </c>
@@ -15713,7 +15720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="837" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" s="4" t="s">
         <v>1807</v>
       </c>
@@ -15724,7 +15731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="838" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" s="4" t="s">
         <v>1808</v>
       </c>
@@ -15735,7 +15742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="839" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" s="4" t="s">
         <v>1809</v>
       </c>
@@ -15816,7 +15823,7 @@
       <c r="A846" s="4" t="s">
         <v>1816</v>
       </c>
-      <c r="B846" s="9" t="s">
+      <c r="B846" s="7" t="s">
         <v>845</v>
       </c>
       <c r="C846" s="4" t="s">
@@ -15827,7 +15834,7 @@
       <c r="A847" s="4" t="s">
         <v>1817</v>
       </c>
-      <c r="B847" s="9" t="s">
+      <c r="B847" s="7" t="s">
         <v>846</v>
       </c>
       <c r="C847" s="4" t="s">
@@ -15838,7 +15845,7 @@
       <c r="A848" s="4" t="s">
         <v>1818</v>
       </c>
-      <c r="B848" s="9" t="s">
+      <c r="B848" s="7" t="s">
         <v>847</v>
       </c>
       <c r="C848" s="4" t="s">
@@ -15849,7 +15856,7 @@
       <c r="A849" s="4" t="s">
         <v>1819</v>
       </c>
-      <c r="B849" s="9" t="s">
+      <c r="B849" s="7" t="s">
         <v>848</v>
       </c>
       <c r="C849" s="4" t="s">
@@ -15860,7 +15867,7 @@
       <c r="A850" s="4" t="s">
         <v>1820</v>
       </c>
-      <c r="B850" s="9" t="s">
+      <c r="B850" s="7" t="s">
         <v>849</v>
       </c>
       <c r="C850" s="4" t="s">
@@ -15871,7 +15878,7 @@
       <c r="A851" s="4" t="s">
         <v>1821</v>
       </c>
-      <c r="B851" s="9" t="s">
+      <c r="B851" s="7" t="s">
         <v>850</v>
       </c>
       <c r="C851" s="4" t="s">
@@ -15882,7 +15889,7 @@
       <c r="A852" s="4" t="s">
         <v>1822</v>
       </c>
-      <c r="B852" s="9" t="s">
+      <c r="B852" s="7" t="s">
         <v>851</v>
       </c>
       <c r="C852" s="4" t="s">
@@ -15893,7 +15900,7 @@
       <c r="A853" s="4" t="s">
         <v>1823</v>
       </c>
-      <c r="B853" s="9" t="s">
+      <c r="B853" s="7" t="s">
         <v>852</v>
       </c>
       <c r="C853" s="4" t="s">
@@ -15904,7 +15911,7 @@
       <c r="A854" s="4" t="s">
         <v>1824</v>
       </c>
-      <c r="B854" s="9" t="s">
+      <c r="B854" s="7" t="s">
         <v>853</v>
       </c>
       <c r="C854" s="4" t="s">
@@ -15915,7 +15922,7 @@
       <c r="A855" s="4" t="s">
         <v>1825</v>
       </c>
-      <c r="B855" s="9" t="s">
+      <c r="B855" s="7" t="s">
         <v>854</v>
       </c>
       <c r="C855" s="4" t="s">
@@ -15926,7 +15933,7 @@
       <c r="A856" s="4" t="s">
         <v>1826</v>
       </c>
-      <c r="B856" s="9" t="s">
+      <c r="B856" s="7" t="s">
         <v>855</v>
       </c>
       <c r="C856" s="4" t="s">
@@ -15937,7 +15944,7 @@
       <c r="A857" s="4" t="s">
         <v>1827</v>
       </c>
-      <c r="B857" s="9" t="s">
+      <c r="B857" s="7" t="s">
         <v>856</v>
       </c>
       <c r="C857" s="4" t="s">
@@ -15948,7 +15955,7 @@
       <c r="A858" s="4" t="s">
         <v>1828</v>
       </c>
-      <c r="B858" s="9" t="s">
+      <c r="B858" s="7" t="s">
         <v>857</v>
       </c>
       <c r="C858" s="4" t="s">
@@ -15959,7 +15966,7 @@
       <c r="A859" s="4" t="s">
         <v>1829</v>
       </c>
-      <c r="B859" s="9" t="s">
+      <c r="B859" s="7" t="s">
         <v>858</v>
       </c>
       <c r="C859" s="4" t="s">
@@ -15970,7 +15977,7 @@
       <c r="A860" s="4" t="s">
         <v>1830</v>
       </c>
-      <c r="B860" s="9" t="s">
+      <c r="B860" s="7" t="s">
         <v>859</v>
       </c>
       <c r="C860" s="4" t="s">
@@ -15981,7 +15988,7 @@
       <c r="A861" s="4" t="s">
         <v>1831</v>
       </c>
-      <c r="B861" s="9" t="s">
+      <c r="B861" s="7" t="s">
         <v>860</v>
       </c>
       <c r="C861" s="4" t="s">
@@ -15992,7 +15999,7 @@
       <c r="A862" s="4" t="s">
         <v>1832</v>
       </c>
-      <c r="B862" s="9" t="s">
+      <c r="B862" s="7" t="s">
         <v>861</v>
       </c>
       <c r="C862" s="4" t="s">
@@ -16003,7 +16010,7 @@
       <c r="A863" s="4" t="s">
         <v>1833</v>
       </c>
-      <c r="B863" s="9" t="s">
+      <c r="B863" s="7" t="s">
         <v>862</v>
       </c>
       <c r="C863" s="4" t="s">
@@ -16014,7 +16021,7 @@
       <c r="A864" s="4" t="s">
         <v>1834</v>
       </c>
-      <c r="B864" s="9" t="s">
+      <c r="B864" s="7" t="s">
         <v>863</v>
       </c>
       <c r="C864" s="4" t="s">
@@ -16025,7 +16032,7 @@
       <c r="A865" s="4" t="s">
         <v>1835</v>
       </c>
-      <c r="B865" s="9" t="s">
+      <c r="B865" s="7" t="s">
         <v>864</v>
       </c>
       <c r="C865" s="4" t="s">
@@ -16036,7 +16043,7 @@
       <c r="A866" s="4" t="s">
         <v>1836</v>
       </c>
-      <c r="B866" s="9" t="s">
+      <c r="B866" s="7" t="s">
         <v>865</v>
       </c>
       <c r="C866" s="4" t="s">
@@ -16047,7 +16054,7 @@
       <c r="A867" s="4" t="s">
         <v>1837</v>
       </c>
-      <c r="B867" s="9" t="s">
+      <c r="B867" s="7" t="s">
         <v>866</v>
       </c>
       <c r="C867" s="4" t="s">
@@ -16058,7 +16065,7 @@
       <c r="A868" s="4" t="s">
         <v>1838</v>
       </c>
-      <c r="B868" s="9" t="s">
+      <c r="B868" s="7" t="s">
         <v>867</v>
       </c>
       <c r="C868" s="4" t="s">
@@ -16069,7 +16076,7 @@
       <c r="A869" s="4" t="s">
         <v>1839</v>
       </c>
-      <c r="B869" s="9" t="s">
+      <c r="B869" s="7" t="s">
         <v>868</v>
       </c>
       <c r="C869" s="4" t="s">
@@ -16080,7 +16087,7 @@
       <c r="A870" s="4" t="s">
         <v>1840</v>
       </c>
-      <c r="B870" s="9" t="s">
+      <c r="B870" s="7" t="s">
         <v>869</v>
       </c>
       <c r="C870" s="4" t="s">
@@ -16091,7 +16098,7 @@
       <c r="A871" s="4" t="s">
         <v>1841</v>
       </c>
-      <c r="B871" s="9" t="s">
+      <c r="B871" s="7" t="s">
         <v>870</v>
       </c>
       <c r="C871" s="4" t="s">
@@ -16102,7 +16109,7 @@
       <c r="A872" s="4" t="s">
         <v>1842</v>
       </c>
-      <c r="B872" s="9" t="s">
+      <c r="B872" s="7" t="s">
         <v>871</v>
       </c>
       <c r="C872" s="4" t="s">
@@ -16113,7 +16120,7 @@
       <c r="A873" s="4" t="s">
         <v>1843</v>
       </c>
-      <c r="B873" s="9" t="s">
+      <c r="B873" s="7" t="s">
         <v>872</v>
       </c>
       <c r="C873" s="4" t="s">
@@ -16124,7 +16131,7 @@
       <c r="A874" s="4" t="s">
         <v>1844</v>
       </c>
-      <c r="B874" s="9" t="s">
+      <c r="B874" s="7" t="s">
         <v>873</v>
       </c>
       <c r="C874" s="4" t="s">
@@ -16135,7 +16142,7 @@
       <c r="A875" s="4" t="s">
         <v>1845</v>
       </c>
-      <c r="B875" s="9" t="s">
+      <c r="B875" s="7" t="s">
         <v>874</v>
       </c>
       <c r="C875" s="4" t="s">
@@ -16146,7 +16153,7 @@
       <c r="A876" s="4" t="s">
         <v>1846</v>
       </c>
-      <c r="B876" s="9" t="s">
+      <c r="B876" s="7" t="s">
         <v>875</v>
       </c>
       <c r="C876" s="4" t="s">
@@ -16157,7 +16164,7 @@
       <c r="A877" s="4" t="s">
         <v>1847</v>
       </c>
-      <c r="B877" s="9" t="s">
+      <c r="B877" s="7" t="s">
         <v>876</v>
       </c>
       <c r="C877" s="4" t="s">
@@ -16168,7 +16175,7 @@
       <c r="A878" s="4" t="s">
         <v>1848</v>
       </c>
-      <c r="B878" s="9" t="s">
+      <c r="B878" s="7" t="s">
         <v>877</v>
       </c>
       <c r="C878" s="4" t="s">
@@ -16179,7 +16186,7 @@
       <c r="A879" s="4" t="s">
         <v>1849</v>
       </c>
-      <c r="B879" s="9" t="s">
+      <c r="B879" s="7" t="s">
         <v>878</v>
       </c>
       <c r="C879" s="4" t="s">
@@ -16190,7 +16197,7 @@
       <c r="A880" s="4" t="s">
         <v>1850</v>
       </c>
-      <c r="B880" s="9" t="s">
+      <c r="B880" s="7" t="s">
         <v>879</v>
       </c>
       <c r="C880" s="4" t="s">
@@ -16201,7 +16208,7 @@
       <c r="A881" s="4" t="s">
         <v>1851</v>
       </c>
-      <c r="B881" s="9" t="s">
+      <c r="B881" s="7" t="s">
         <v>880</v>
       </c>
       <c r="C881" s="4" t="s">
@@ -16212,7 +16219,7 @@
       <c r="A882" s="4" t="s">
         <v>1852</v>
       </c>
-      <c r="B882" s="9" t="s">
+      <c r="B882" s="7" t="s">
         <v>881</v>
       </c>
       <c r="C882" s="4" t="s">
@@ -16223,7 +16230,7 @@
       <c r="A883" s="4" t="s">
         <v>1853</v>
       </c>
-      <c r="B883" s="9" t="s">
+      <c r="B883" s="7" t="s">
         <v>882</v>
       </c>
       <c r="C883" s="4" t="s">
@@ -16234,7 +16241,7 @@
       <c r="A884" s="4" t="s">
         <v>1854</v>
       </c>
-      <c r="B884" s="9" t="s">
+      <c r="B884" s="7" t="s">
         <v>883</v>
       </c>
       <c r="C884" s="4" t="s">
@@ -16245,7 +16252,7 @@
       <c r="A885" s="4" t="s">
         <v>1855</v>
       </c>
-      <c r="B885" s="9" t="s">
+      <c r="B885" s="7" t="s">
         <v>884</v>
       </c>
       <c r="C885" s="4" t="s">
@@ -16256,7 +16263,7 @@
       <c r="A886" s="4" t="s">
         <v>1856</v>
       </c>
-      <c r="B886" s="9" t="s">
+      <c r="B886" s="7" t="s">
         <v>885</v>
       </c>
       <c r="C886" s="4" t="s">
@@ -16267,7 +16274,7 @@
       <c r="A887" s="4" t="s">
         <v>1857</v>
       </c>
-      <c r="B887" s="9" t="s">
+      <c r="B887" s="7" t="s">
         <v>886</v>
       </c>
       <c r="C887" s="4" t="s">
@@ -16278,7 +16285,7 @@
       <c r="A888" s="4" t="s">
         <v>1858</v>
       </c>
-      <c r="B888" s="9" t="s">
+      <c r="B888" s="7" t="s">
         <v>887</v>
       </c>
       <c r="C888" s="4" t="s">
@@ -16289,7 +16296,7 @@
       <c r="A889" s="4" t="s">
         <v>1859</v>
       </c>
-      <c r="B889" s="9" t="s">
+      <c r="B889" s="7" t="s">
         <v>888</v>
       </c>
       <c r="C889" s="4" t="s">
@@ -16300,7 +16307,7 @@
       <c r="A890" s="4" t="s">
         <v>1860</v>
       </c>
-      <c r="B890" s="9" t="s">
+      <c r="B890" s="7" t="s">
         <v>889</v>
       </c>
       <c r="C890" s="4" t="s">
@@ -16311,7 +16318,7 @@
       <c r="A891" s="4" t="s">
         <v>1861</v>
       </c>
-      <c r="B891" s="9" t="s">
+      <c r="B891" s="7" t="s">
         <v>890</v>
       </c>
       <c r="C891" s="4" t="s">
@@ -16322,7 +16329,7 @@
       <c r="A892" s="4" t="s">
         <v>1862</v>
       </c>
-      <c r="B892" s="9" t="s">
+      <c r="B892" s="7" t="s">
         <v>891</v>
       </c>
       <c r="C892" s="4" t="s">
@@ -16333,7 +16340,7 @@
       <c r="A893" s="4" t="s">
         <v>1863</v>
       </c>
-      <c r="B893" s="9" t="s">
+      <c r="B893" s="7" t="s">
         <v>892</v>
       </c>
       <c r="C893" s="4" t="s">
@@ -16344,7 +16351,7 @@
       <c r="A894" s="4" t="s">
         <v>1864</v>
       </c>
-      <c r="B894" s="9" t="s">
+      <c r="B894" s="7" t="s">
         <v>893</v>
       </c>
       <c r="C894" s="4" t="s">
@@ -16355,7 +16362,7 @@
       <c r="A895" s="4" t="s">
         <v>1865</v>
       </c>
-      <c r="B895" s="9" t="s">
+      <c r="B895" s="7" t="s">
         <v>894</v>
       </c>
       <c r="C895" s="4" t="s">
@@ -16366,7 +16373,7 @@
       <c r="A896" s="4" t="s">
         <v>1866</v>
       </c>
-      <c r="B896" s="9" t="s">
+      <c r="B896" s="7" t="s">
         <v>895</v>
       </c>
       <c r="C896" s="4" t="s">
@@ -16377,7 +16384,7 @@
       <c r="A897" s="4" t="s">
         <v>1867</v>
       </c>
-      <c r="B897" s="9" t="s">
+      <c r="B897" s="7" t="s">
         <v>896</v>
       </c>
       <c r="C897" s="4" t="s">
@@ -16388,7 +16395,7 @@
       <c r="A898" s="4" t="s">
         <v>1868</v>
       </c>
-      <c r="B898" s="9" t="s">
+      <c r="B898" s="7" t="s">
         <v>897</v>
       </c>
       <c r="C898" s="4" t="s">
@@ -16399,7 +16406,7 @@
       <c r="A899" s="4" t="s">
         <v>1869</v>
       </c>
-      <c r="B899" s="9" t="s">
+      <c r="B899" s="7" t="s">
         <v>898</v>
       </c>
       <c r="C899" s="4" t="s">
@@ -16410,7 +16417,7 @@
       <c r="A900" s="4" t="s">
         <v>1870</v>
       </c>
-      <c r="B900" s="9" t="s">
+      <c r="B900" s="7" t="s">
         <v>899</v>
       </c>
       <c r="C900" s="4" t="s">
@@ -16421,7 +16428,7 @@
       <c r="A901" s="4" t="s">
         <v>1871</v>
       </c>
-      <c r="B901" s="9" t="s">
+      <c r="B901" s="7" t="s">
         <v>900</v>
       </c>
       <c r="C901" s="4" t="s">
@@ -16432,7 +16439,7 @@
       <c r="A902" s="4" t="s">
         <v>1872</v>
       </c>
-      <c r="B902" s="9" t="s">
+      <c r="B902" s="7" t="s">
         <v>901</v>
       </c>
       <c r="C902" s="4" t="s">
@@ -16443,7 +16450,7 @@
       <c r="A903" s="4" t="s">
         <v>1873</v>
       </c>
-      <c r="B903" s="9" t="s">
+      <c r="B903" s="7" t="s">
         <v>902</v>
       </c>
       <c r="C903" s="4" t="s">
@@ -16454,7 +16461,7 @@
       <c r="A904" s="4" t="s">
         <v>1874</v>
       </c>
-      <c r="B904" s="9" t="s">
+      <c r="B904" s="7" t="s">
         <v>903</v>
       </c>
       <c r="C904" s="4" t="s">
@@ -16465,7 +16472,7 @@
       <c r="A905" s="4" t="s">
         <v>1875</v>
       </c>
-      <c r="B905" s="9" t="s">
+      <c r="B905" s="7" t="s">
         <v>904</v>
       </c>
       <c r="C905" s="4" t="s">
@@ -16476,7 +16483,7 @@
       <c r="A906" s="4" t="s">
         <v>1876</v>
       </c>
-      <c r="B906" s="9" t="s">
+      <c r="B906" s="7" t="s">
         <v>905</v>
       </c>
       <c r="C906" s="4" t="s">
@@ -16487,7 +16494,7 @@
       <c r="A907" s="4" t="s">
         <v>1877</v>
       </c>
-      <c r="B907" s="9" t="s">
+      <c r="B907" s="7" t="s">
         <v>906</v>
       </c>
       <c r="C907" s="4" t="s">
@@ -16498,7 +16505,7 @@
       <c r="A908" s="4" t="s">
         <v>1878</v>
       </c>
-      <c r="B908" s="9" t="s">
+      <c r="B908" s="7" t="s">
         <v>907</v>
       </c>
       <c r="C908" s="4" t="s">
@@ -16509,7 +16516,7 @@
       <c r="A909" s="4" t="s">
         <v>1879</v>
       </c>
-      <c r="B909" s="9" t="s">
+      <c r="B909" s="7" t="s">
         <v>908</v>
       </c>
       <c r="C909" s="4" t="s">
@@ -16520,7 +16527,7 @@
       <c r="A910" s="4" t="s">
         <v>1880</v>
       </c>
-      <c r="B910" s="9" t="s">
+      <c r="B910" s="7" t="s">
         <v>909</v>
       </c>
       <c r="C910" s="4" t="s">
@@ -16531,7 +16538,7 @@
       <c r="A911" s="4" t="s">
         <v>1881</v>
       </c>
-      <c r="B911" s="9" t="s">
+      <c r="B911" s="7" t="s">
         <v>910</v>
       </c>
       <c r="C911" s="4" t="s">
@@ -16542,7 +16549,7 @@
       <c r="A912" s="4" t="s">
         <v>1882</v>
       </c>
-      <c r="B912" s="9" t="s">
+      <c r="B912" s="7" t="s">
         <v>911</v>
       </c>
       <c r="C912" s="4" t="s">
@@ -16553,7 +16560,7 @@
       <c r="A913" s="4" t="s">
         <v>1883</v>
       </c>
-      <c r="B913" s="9" t="s">
+      <c r="B913" s="7" t="s">
         <v>912</v>
       </c>
       <c r="C913" s="4" t="s">
@@ -16564,7 +16571,7 @@
       <c r="A914" s="4" t="s">
         <v>1884</v>
       </c>
-      <c r="B914" s="9" t="s">
+      <c r="B914" s="7" t="s">
         <v>913</v>
       </c>
       <c r="C914" s="4" t="s">
@@ -16575,7 +16582,7 @@
       <c r="A915" s="4" t="s">
         <v>1885</v>
       </c>
-      <c r="B915" s="9" t="s">
+      <c r="B915" s="7" t="s">
         <v>914</v>
       </c>
       <c r="C915" s="4" t="s">
@@ -16586,7 +16593,7 @@
       <c r="A916" s="4" t="s">
         <v>1886</v>
       </c>
-      <c r="B916" s="9" t="s">
+      <c r="B916" s="7" t="s">
         <v>915</v>
       </c>
       <c r="C916" s="4" t="s">
@@ -16597,7 +16604,7 @@
       <c r="A917" s="4" t="s">
         <v>1887</v>
       </c>
-      <c r="B917" s="9" t="s">
+      <c r="B917" s="7" t="s">
         <v>916</v>
       </c>
       <c r="C917" s="4" t="s">
@@ -16608,7 +16615,7 @@
       <c r="A918" s="4" t="s">
         <v>1888</v>
       </c>
-      <c r="B918" s="9" t="s">
+      <c r="B918" s="7" t="s">
         <v>917</v>
       </c>
       <c r="C918" s="4" t="s">
@@ -16619,7 +16626,7 @@
       <c r="A919" s="4" t="s">
         <v>1889</v>
       </c>
-      <c r="B919" s="9" t="s">
+      <c r="B919" s="7" t="s">
         <v>918</v>
       </c>
       <c r="C919" s="4" t="s">
@@ -16630,7 +16637,7 @@
       <c r="A920" s="4" t="s">
         <v>1890</v>
       </c>
-      <c r="B920" s="9" t="s">
+      <c r="B920" s="7" t="s">
         <v>919</v>
       </c>
       <c r="C920" s="4" t="s">
@@ -16641,7 +16648,7 @@
       <c r="A921" s="4" t="s">
         <v>1891</v>
       </c>
-      <c r="B921" s="9" t="s">
+      <c r="B921" s="7" t="s">
         <v>920</v>
       </c>
       <c r="C921" s="4" t="s">
@@ -16652,7 +16659,7 @@
       <c r="A922" s="4" t="s">
         <v>1892</v>
       </c>
-      <c r="B922" s="9" t="s">
+      <c r="B922" s="7" t="s">
         <v>921</v>
       </c>
       <c r="C922" s="4" t="s">
@@ -16663,7 +16670,7 @@
       <c r="A923" s="4" t="s">
         <v>1893</v>
       </c>
-      <c r="B923" s="9" t="s">
+      <c r="B923" s="7" t="s">
         <v>922</v>
       </c>
       <c r="C923" s="4" t="s">
@@ -16674,7 +16681,7 @@
       <c r="A924" s="4" t="s">
         <v>1894</v>
       </c>
-      <c r="B924" s="9" t="s">
+      <c r="B924" s="7" t="s">
         <v>923</v>
       </c>
       <c r="C924" s="4" t="s">
@@ -16685,7 +16692,7 @@
       <c r="A925" s="4" t="s">
         <v>1895</v>
       </c>
-      <c r="B925" s="9" t="s">
+      <c r="B925" s="7" t="s">
         <v>924</v>
       </c>
       <c r="C925" s="4" t="s">
@@ -16696,7 +16703,7 @@
       <c r="A926" s="4" t="s">
         <v>1896</v>
       </c>
-      <c r="B926" s="9" t="s">
+      <c r="B926" s="7" t="s">
         <v>925</v>
       </c>
       <c r="C926" s="4" t="s">
@@ -16707,7 +16714,7 @@
       <c r="A927" s="4" t="s">
         <v>1897</v>
       </c>
-      <c r="B927" s="9" t="s">
+      <c r="B927" s="7" t="s">
         <v>926</v>
       </c>
       <c r="C927" s="4" t="s">
@@ -16718,7 +16725,7 @@
       <c r="A928" s="4" t="s">
         <v>1898</v>
       </c>
-      <c r="B928" s="9" t="s">
+      <c r="B928" s="7" t="s">
         <v>927</v>
       </c>
       <c r="C928" s="4" t="s">
@@ -16729,7 +16736,7 @@
       <c r="A929" s="4" t="s">
         <v>1899</v>
       </c>
-      <c r="B929" s="9" t="s">
+      <c r="B929" s="7" t="s">
         <v>928</v>
       </c>
       <c r="C929" s="4" t="s">
@@ -16740,7 +16747,7 @@
       <c r="A930" s="4" t="s">
         <v>1900</v>
       </c>
-      <c r="B930" s="9" t="s">
+      <c r="B930" s="7" t="s">
         <v>929</v>
       </c>
       <c r="C930" s="4" t="s">
@@ -16751,7 +16758,7 @@
       <c r="A931" s="4" t="s">
         <v>1901</v>
       </c>
-      <c r="B931" s="9" t="s">
+      <c r="B931" s="7" t="s">
         <v>930</v>
       </c>
       <c r="C931" s="4" t="s">
@@ -16762,7 +16769,7 @@
       <c r="A932" s="4" t="s">
         <v>1902</v>
       </c>
-      <c r="B932" s="9" t="s">
+      <c r="B932" s="7" t="s">
         <v>931</v>
       </c>
       <c r="C932" s="4" t="s">
@@ -16773,7 +16780,7 @@
       <c r="A933" s="4" t="s">
         <v>1903</v>
       </c>
-      <c r="B933" s="9" t="s">
+      <c r="B933" s="7" t="s">
         <v>932</v>
       </c>
       <c r="C933" s="4" t="s">
@@ -16784,7 +16791,7 @@
       <c r="A934" s="4" t="s">
         <v>1904</v>
       </c>
-      <c r="B934" s="9" t="s">
+      <c r="B934" s="7" t="s">
         <v>933</v>
       </c>
       <c r="C934" s="4" t="s">
@@ -16795,7 +16802,7 @@
       <c r="A935" s="4" t="s">
         <v>1905</v>
       </c>
-      <c r="B935" s="9" t="s">
+      <c r="B935" s="7" t="s">
         <v>934</v>
       </c>
       <c r="C935" s="4" t="s">
@@ -16806,7 +16813,7 @@
       <c r="A936" s="4" t="s">
         <v>1906</v>
       </c>
-      <c r="B936" s="9" t="s">
+      <c r="B936" s="7" t="s">
         <v>935</v>
       </c>
       <c r="C936" s="4" t="s">
@@ -16817,7 +16824,7 @@
       <c r="A937" s="4" t="s">
         <v>1907</v>
       </c>
-      <c r="B937" s="9" t="s">
+      <c r="B937" s="7" t="s">
         <v>936</v>
       </c>
       <c r="C937" s="4" t="s">
@@ -16828,7 +16835,7 @@
       <c r="A938" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="B938" s="9" t="s">
+      <c r="B938" s="7" t="s">
         <v>937</v>
       </c>
       <c r="C938" s="4" t="s">
@@ -16839,7 +16846,7 @@
       <c r="A939" s="4" t="s">
         <v>1909</v>
       </c>
-      <c r="B939" s="9" t="s">
+      <c r="B939" s="7" t="s">
         <v>938</v>
       </c>
       <c r="C939" s="4" t="s">
@@ -16850,7 +16857,7 @@
       <c r="A940" s="4" t="s">
         <v>1910</v>
       </c>
-      <c r="B940" s="9" t="s">
+      <c r="B940" s="7" t="s">
         <v>209</v>
       </c>
       <c r="C940" s="4" t="s">
@@ -16861,7 +16868,7 @@
       <c r="A941" s="4" t="s">
         <v>1911</v>
       </c>
-      <c r="B941" s="9" t="s">
+      <c r="B941" s="7" t="s">
         <v>939</v>
       </c>
       <c r="C941" s="4" t="s">
@@ -16872,7 +16879,7 @@
       <c r="A942" s="4" t="s">
         <v>1912</v>
       </c>
-      <c r="B942" s="9" t="s">
+      <c r="B942" s="7" t="s">
         <v>940</v>
       </c>
       <c r="C942" s="4" t="s">
@@ -16883,7 +16890,7 @@
       <c r="A943" s="4" t="s">
         <v>1913</v>
       </c>
-      <c r="B943" s="9" t="s">
+      <c r="B943" s="7" t="s">
         <v>941</v>
       </c>
       <c r="C943" s="4" t="s">
@@ -16894,7 +16901,7 @@
       <c r="A944" s="4" t="s">
         <v>1914</v>
       </c>
-      <c r="B944" s="9" t="s">
+      <c r="B944" s="7" t="s">
         <v>942</v>
       </c>
       <c r="C944" s="4" t="s">
@@ -16905,7 +16912,7 @@
       <c r="A945" s="4" t="s">
         <v>1915</v>
       </c>
-      <c r="B945" s="9" t="s">
+      <c r="B945" s="7" t="s">
         <v>943</v>
       </c>
       <c r="C945" s="4" t="s">
@@ -16916,7 +16923,7 @@
       <c r="A946" s="4" t="s">
         <v>1916</v>
       </c>
-      <c r="B946" s="9" t="s">
+      <c r="B946" s="7" t="s">
         <v>944</v>
       </c>
       <c r="C946" s="4" t="s">
@@ -16927,7 +16934,7 @@
       <c r="A947" s="4" t="s">
         <v>1917</v>
       </c>
-      <c r="B947" s="9" t="s">
+      <c r="B947" s="7" t="s">
         <v>945</v>
       </c>
       <c r="C947" s="4" t="s">
@@ -16938,7 +16945,7 @@
       <c r="A948" s="4" t="s">
         <v>1918</v>
       </c>
-      <c r="B948" s="9" t="s">
+      <c r="B948" s="7" t="s">
         <v>946</v>
       </c>
       <c r="C948" s="4" t="s">
@@ -16949,7 +16956,7 @@
       <c r="A949" s="4" t="s">
         <v>1919</v>
       </c>
-      <c r="B949" s="9" t="s">
+      <c r="B949" s="7" t="s">
         <v>947</v>
       </c>
       <c r="C949" s="4" t="s">
@@ -16960,7 +16967,7 @@
       <c r="A950" s="4" t="s">
         <v>1920</v>
       </c>
-      <c r="B950" s="9" t="s">
+      <c r="B950" s="7" t="s">
         <v>948</v>
       </c>
       <c r="C950" s="4" t="s">
@@ -16971,7 +16978,7 @@
       <c r="A951" s="4" t="s">
         <v>1921</v>
       </c>
-      <c r="B951" s="9" t="s">
+      <c r="B951" s="7" t="s">
         <v>949</v>
       </c>
       <c r="C951" s="4" t="s">
@@ -16982,7 +16989,7 @@
       <c r="A952" s="4" t="s">
         <v>1922</v>
       </c>
-      <c r="B952" s="9" t="s">
+      <c r="B952" s="7" t="s">
         <v>950</v>
       </c>
       <c r="C952" s="4" t="s">
@@ -16993,7 +17000,7 @@
       <c r="A953" s="4" t="s">
         <v>1923</v>
       </c>
-      <c r="B953" s="9" t="s">
+      <c r="B953" s="7" t="s">
         <v>951</v>
       </c>
       <c r="C953" s="4" t="s">
@@ -17004,7 +17011,7 @@
       <c r="A954" s="4" t="s">
         <v>1924</v>
       </c>
-      <c r="B954" s="9" t="s">
+      <c r="B954" s="7" t="s">
         <v>952</v>
       </c>
       <c r="C954" s="4" t="s">
@@ -17015,7 +17022,7 @@
       <c r="A955" s="4" t="s">
         <v>1925</v>
       </c>
-      <c r="B955" s="9" t="s">
+      <c r="B955" s="7" t="s">
         <v>953</v>
       </c>
       <c r="C955" s="4" t="s">
@@ -17026,7 +17033,7 @@
       <c r="A956" s="4" t="s">
         <v>1926</v>
       </c>
-      <c r="B956" s="9" t="s">
+      <c r="B956" s="7" t="s">
         <v>954</v>
       </c>
       <c r="C956" s="4" t="s">
@@ -17037,7 +17044,7 @@
       <c r="A957" s="4" t="s">
         <v>1927</v>
       </c>
-      <c r="B957" s="9" t="s">
+      <c r="B957" s="7" t="s">
         <v>955</v>
       </c>
       <c r="C957" s="4" t="s">
@@ -17048,7 +17055,7 @@
       <c r="A958" s="4" t="s">
         <v>1928</v>
       </c>
-      <c r="B958" s="9" t="s">
+      <c r="B958" s="7" t="s">
         <v>956</v>
       </c>
       <c r="C958" s="4" t="s">
@@ -17059,7 +17066,7 @@
       <c r="A959" s="4" t="s">
         <v>1929</v>
       </c>
-      <c r="B959" s="9" t="s">
+      <c r="B959" s="7" t="s">
         <v>957</v>
       </c>
       <c r="C959" s="4" t="s">
@@ -17070,7 +17077,7 @@
       <c r="A960" s="4" t="s">
         <v>1930</v>
       </c>
-      <c r="B960" s="9" t="s">
+      <c r="B960" s="7" t="s">
         <v>958</v>
       </c>
       <c r="C960" s="4" t="s">
@@ -17081,7 +17088,7 @@
       <c r="A961" s="4">
         <v>81000010</v>
       </c>
-      <c r="B961" s="8" t="s">
+      <c r="B961" s="6" t="s">
         <v>959</v>
       </c>
       <c r="C961" s="4" t="s">
@@ -17092,7 +17099,7 @@
       <c r="A962" s="4">
         <v>81000013</v>
       </c>
-      <c r="B962" s="8" t="s">
+      <c r="B962" s="6" t="s">
         <v>960</v>
       </c>
       <c r="C962" s="4" t="s">
@@ -17103,18 +17110,18 @@
       <c r="A963" s="4">
         <v>81000014</v>
       </c>
-      <c r="B963" s="8" t="s">
+      <c r="B963" s="6" t="s">
         <v>961</v>
       </c>
       <c r="C963" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="964" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="4">
         <v>81000020</v>
       </c>
-      <c r="B964" s="9" t="s">
+      <c r="B964" s="7" t="s">
         <v>962</v>
       </c>
       <c r="C964" s="4" t="s">
@@ -17125,7 +17132,7 @@
       <c r="A965" s="4">
         <v>81000022</v>
       </c>
-      <c r="B965" s="9" t="s">
+      <c r="B965" s="7" t="s">
         <v>963</v>
       </c>
       <c r="C965" s="4" t="s">
@@ -17136,7 +17143,7 @@
       <c r="A966" s="4">
         <v>81000023</v>
       </c>
-      <c r="B966" s="9" t="s">
+      <c r="B966" s="7" t="s">
         <v>964</v>
       </c>
       <c r="C966" s="4" t="s">
@@ -17147,7 +17154,7 @@
       <c r="A967" s="4">
         <v>81000030</v>
       </c>
-      <c r="B967" s="9" t="s">
+      <c r="B967" s="7" t="s">
         <v>965</v>
       </c>
       <c r="C967" s="4" t="s">
@@ -17158,7 +17165,7 @@
       <c r="A968" s="4">
         <v>81000036</v>
       </c>
-      <c r="B968" s="9" t="s">
+      <c r="B968" s="7" t="s">
         <v>966</v>
       </c>
       <c r="C968" s="4" t="s">
@@ -17169,7 +17176,7 @@
       <c r="A969" s="4">
         <v>81000037</v>
       </c>
-      <c r="B969" s="9" t="s">
+      <c r="B969" s="7" t="s">
         <v>967</v>
       </c>
       <c r="C969" s="4" t="s">
@@ -17180,7 +17187,7 @@
       <c r="A970" s="4">
         <v>81000038</v>
       </c>
-      <c r="B970" s="9" t="s">
+      <c r="B970" s="7" t="s">
         <v>968</v>
       </c>
       <c r="C970" s="4" t="s">
@@ -17191,18 +17198,18 @@
       <c r="A971" s="4">
         <v>81000039</v>
       </c>
-      <c r="B971" s="9" t="s">
+      <c r="B971" s="7" t="s">
         <v>969</v>
       </c>
       <c r="C971" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="972" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A972" s="4">
         <v>90001004</v>
       </c>
-      <c r="B972" s="9" t="s">
+      <c r="B972" s="7" t="s">
         <v>970</v>
       </c>
       <c r="C972" s="4" t="s">
@@ -17213,15 +17220,48 @@
       <c r="A973" s="4">
         <v>90001006</v>
       </c>
-      <c r="B973" s="9" t="s">
+      <c r="B973" s="7" t="s">
         <v>971</v>
       </c>
       <c r="C973" s="4" t="s">
         <v>222</v>
       </c>
     </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A974" s="7">
+        <v>10001713</v>
+      </c>
+      <c r="B974" s="7" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C974" s="7" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A975" s="7">
+        <v>10001222</v>
+      </c>
+      <c r="B975" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="C975" s="7" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A976" s="7">
+        <v>10001759</v>
+      </c>
+      <c r="B976" s="7" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C976" s="7" t="s">
+        <v>1935</v>
+      </c>
+    </row>
     <row r="982" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C982" s="10"/>
+      <c r="C982" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
